--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_24_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_24_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>855642.7489568827</v>
+        <v>849191.6870365317</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20060250.84092495</v>
+        <v>20060250.84092496</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11989046.40623156</v>
+        <v>11989046.40623157</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5404581.238862266</v>
+        <v>5404581.238862265</v>
       </c>
     </row>
     <row r="11">
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>264.9098272115528</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>264.9098272115528</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>164.5057435296413</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1426,13 +1426,13 @@
         <v>212.825254881377</v>
       </c>
       <c r="U11" t="n">
-        <v>253.0409527385574</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>264.9098272115529</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>176.3746180026368</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1451,25 +1451,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>54.14245972282993</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8275850600053</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>77.45102300362777</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>13.37438009968258</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1508,16 +1508,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W12" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>107.0424051604473</v>
       </c>
     </row>
     <row r="13">
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.7066254932732</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>69.2162257988313</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>83.77347586928133</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.7152862203266</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>229.6664313308158</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>264.9098272115529</v>
+        <v>264.9098272115528</v>
       </c>
       <c r="V13" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0.6774850832336493</v>
+        <v>264.9098272115528</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>264.9098272115527</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>245.201450280931</v>
       </c>
       <c r="F14" t="n">
-        <v>264.9098272115527</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>264.9098272115528</v>
       </c>
       <c r="H14" t="n">
-        <v>233.3325758079356</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.0409527385574</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>264.9098272115528</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>264.9098272115527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D15" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>135.0820259802211</v>
+        <v>61.97503261589158</v>
       </c>
       <c r="F15" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>117.8275850600053</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>13.37438009968258</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,19 +1736,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>62.51685180781247</v>
+        <v>114.4192084551167</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>207.8946411849309</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.7066254932732</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>105.7539441251484</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>83.77347586928133</v>
       </c>
       <c r="S16" t="n">
-        <v>185.7152862203266</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>229.6664313308158</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>264.9098272115527</v>
+        <v>264.9098272115528</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0.6774850832333221</v>
+        <v>264.9098272115528</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>143.0083575317856</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1849,16 +1849,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="F17" t="n">
-        <v>264.9098272115529</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>120.9114046084703</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.825254881377</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.0409527385574</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>176.3746180026368</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>233.3325758079355</v>
       </c>
     </row>
     <row r="18">
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>64.44932428991036</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1937,13 +1937,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>117.8275850600053</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>77.45102300362777</v>
       </c>
       <c r="I18" t="n">
-        <v>13.37438009968258</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>114.4192084551167</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>171.055761932852</v>
       </c>
       <c r="U18" t="n">
-        <v>207.8946411849309</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>220.3146016126436</v>
@@ -1988,7 +1988,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X18" t="n">
-        <v>73.18739074932255</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.7066254932732</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>83.77347586928131</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>28.56700820037259</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>264.9098272115529</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>150.7701145059956</v>
       </c>
     </row>
     <row r="20">
@@ -2089,10 +2089,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>32.37619539955418</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>120.9114046084703</v>
       </c>
       <c r="T20" t="n">
         <v>212.825254881377</v>
       </c>
       <c r="U20" t="n">
-        <v>253.0409527385574</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>264.9098272115529</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>264.9098272115529</v>
+        <v>164.5057435296411</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2165,22 +2165,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>113.0088802226684</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>117.8275850600053</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>77.45102300362777</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>13.37438009968258</v>
+        <v>7.101659608237139</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>207.8946411849309</v>
       </c>
       <c r="V21" t="n">
         <v>220.3146016126436</v>
@@ -2225,10 +2225,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="22">
@@ -2241,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>5.256419961288654</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>229.6664313308158</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>264.9098272115529</v>
+        <v>252.9353071021638</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>264.9098272115529</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -2320,25 +2320,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>264.9098272115529</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>264.9098272115529</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>32.37619539955386</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>212.825254881377</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.0409527385574</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>233.3325758079358</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>264.9098272115529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>123.1874880556995</v>
+        <v>7.101659608236917</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2450,13 +2450,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>12.69735511805233</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>207.8946411849309</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W24" t="n">
         <v>227.816073408046</v>
@@ -2478,16 +2478,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>84.00565338593644</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2529,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>229.6664313308158</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>69.90300484203891</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>220.8809405715231</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>264.9098272115529</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="C26" t="n">
-        <v>264.9098272115529</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="E26" t="n">
-        <v>264.9098272115529</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>112.4211711994654</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>120.9114046084703</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>233.3325758079357</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>264.9098272115527</v>
       </c>
     </row>
     <row r="27">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>7.101659608237139</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>86.56177084900511</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2684,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>114.4192084551167</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>171.055761932852</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>207.8946411849309</v>
@@ -2699,10 +2699,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="28">
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.7066254932732</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>185.7152862203266</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>229.6664313308158</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>264.9098272115529</v>
+        <v>102.3865340155372</v>
       </c>
       <c r="V28" t="n">
-        <v>82.86068546834608</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>264.9098272115529</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>264.9098272115529</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>49.80123860101645</v>
       </c>
       <c r="E29" t="n">
-        <v>233.3325758079357</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>264.9098272115529</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="G29" t="n">
-        <v>264.9098272115529</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>62.61993259844901</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>120.9114046084703</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>117.8275850600053</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2936,10 +2936,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y30" t="n">
-        <v>72.61068200491341</v>
+        <v>66.79514930347965</v>
       </c>
     </row>
     <row r="31">
@@ -2952,22 +2952,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>48.9240251753708</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>146.2341261174519</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>185.7152862203266</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>84.73722100442211</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3040,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>233.3325758079356</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>120.9114046084703</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>212.825254881377</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>164.5057435296411</v>
       </c>
       <c r="V32" t="n">
-        <v>264.9098272115527</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>264.9098272115527</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3110,22 +3110,22 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>122.6603389879124</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>77.45102300362777</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,16 +3158,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>44.23729538517384</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>207.8946411849309</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>227.816073408046</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.7066254932732</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>185.7152862203266</v>
       </c>
       <c r="T34" t="n">
-        <v>229.6664313308158</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>212.8074643039373</v>
       </c>
       <c r="Y34" t="n">
-        <v>105.0686591932356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3274,19 +3274,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>264.9098272115529</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>264.9098272115529</v>
       </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>112.4211711994655</v>
       </c>
       <c r="I35" t="n">
-        <v>62.61993259844901</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>120.9114046084703</v>
       </c>
       <c r="T35" t="n">
-        <v>182.5815176824821</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.0409527385574</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>264.9098272115529</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>13.37438009968258</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3398,10 +3398,10 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>171.055761932852</v>
       </c>
       <c r="U36" t="n">
-        <v>64.71792969661671</v>
+        <v>30.56615876063375</v>
       </c>
       <c r="V36" t="n">
         <v>220.3146016126436</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>5.256419961288724</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>3.183332297257748</v>
       </c>
       <c r="T37" t="n">
-        <v>229.6664313308158</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>264.9098272115529</v>
@@ -3489,7 +3489,7 @@
         <v>264.9098272115529</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>264.9098272115529</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>264.9098272115529</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>20.5073209265587</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>120.9114046084703</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>112.4211711994654</v>
+        <v>212.825254881377</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>264.9098272115529</v>
+        <v>264.9098272115527</v>
       </c>
     </row>
     <row r="39">
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3632,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>114.4192084551167</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>81.29908740730413</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3644,10 +3644,10 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W39" t="n">
-        <v>143.3863149691539</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>177.5210747552478</v>
@@ -3663,10 +3663,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>115.5300434251748</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>185.7152862203266</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>127.1758321602833</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>264.9098272115529</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>220.8809405715231</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>233.3325758079357</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>264.9098272115529</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>20.5073209265588</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>212.825254881377</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>264.9098272115529</v>
       </c>
       <c r="X41" t="n">
-        <v>264.9098272115529</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3818,19 +3818,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>13.56697243063331</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>171.055761932852</v>
       </c>
       <c r="U42" t="n">
-        <v>207.8946411849309</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>187.4140068734885</v>
+        <v>142.1492579172875</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="43">
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>116.2835971191425</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>165.7066254932732</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>83.77347586928133</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>185.7152862203266</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>229.6664313308158</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>69.90300484203959</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -3982,13 +3982,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>264.9098272115529</v>
+        <v>264.9098272115528</v>
       </c>
       <c r="E44" t="n">
-        <v>233.3325758079357</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>264.9098272115529</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>233.3325758079358</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>264.9098272115528</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>264.9098272115528</v>
       </c>
       <c r="Y44" t="n">
-        <v>264.9098272115529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,10 +4058,10 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4106,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>92.97029243568748</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>207.8946411849309</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>220.3146016126436</v>
+        <v>135.8848431737514</v>
       </c>
       <c r="W45" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="46">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>31.12270015856645</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.7066254932732</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>146.2341261174519</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>105.7539441251484</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>83.77347586928133</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>185.7152862203266</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>130.7614537789424</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>264.9098272115528</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21.19278617692423</v>
+        <v>722.5315719877797</v>
       </c>
       <c r="C11" t="n">
-        <v>21.19278617692423</v>
+        <v>722.5315719877797</v>
       </c>
       <c r="D11" t="n">
-        <v>21.19278617692423</v>
+        <v>722.5315719877797</v>
       </c>
       <c r="E11" t="n">
-        <v>21.19278617692423</v>
+        <v>454.9458879357061</v>
       </c>
       <c r="F11" t="n">
-        <v>21.19278617692423</v>
+        <v>187.3602038836326</v>
       </c>
       <c r="G11" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="H11" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="I11" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="J11" t="n">
-        <v>66.6999814434439</v>
+        <v>66.69998144344379</v>
       </c>
       <c r="K11" t="n">
-        <v>167.8835074844187</v>
+        <v>167.8835074844188</v>
       </c>
       <c r="L11" t="n">
         <v>317.3967640053161</v>
@@ -5053,7 +5053,7 @@
         <v>504.3442043438556</v>
       </c>
       <c r="N11" t="n">
-        <v>697.3156251608455</v>
+        <v>697.3156251608453</v>
       </c>
       <c r="O11" t="n">
         <v>870.8651460022305</v>
@@ -5068,25 +5068,25 @@
         <v>1059.639308846211</v>
       </c>
       <c r="S11" t="n">
-        <v>937.5065769184637</v>
+        <v>937.5065769184635</v>
       </c>
       <c r="T11" t="n">
-        <v>722.5315719877799</v>
+        <v>722.5315719877797</v>
       </c>
       <c r="U11" t="n">
-        <v>466.934650029641</v>
+        <v>722.5315719877797</v>
       </c>
       <c r="V11" t="n">
-        <v>199.3489659775674</v>
+        <v>722.5315719877797</v>
       </c>
       <c r="W11" t="n">
-        <v>21.19278617692423</v>
+        <v>722.5315719877797</v>
       </c>
       <c r="X11" t="n">
-        <v>21.19278617692423</v>
+        <v>722.5315719877797</v>
       </c>
       <c r="Y11" t="n">
-        <v>21.19278617692423</v>
+        <v>722.5315719877797</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>541.1635070320551</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="C12" t="n">
-        <v>486.4741537766714</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="D12" t="n">
-        <v>356.3851863981517</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="E12" t="n">
-        <v>356.3851863981517</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="F12" t="n">
-        <v>231.9533802812835</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="G12" t="n">
-        <v>112.9356175944094</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="H12" t="n">
-        <v>34.70226102508845</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="I12" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="J12" t="n">
-        <v>162.0847476882124</v>
+        <v>202.0549802737916</v>
       </c>
       <c r="K12" t="n">
-        <v>238.3042966027546</v>
+        <v>278.2745291883338</v>
       </c>
       <c r="L12" t="n">
-        <v>370.900537945761</v>
+        <v>410.8707705313401</v>
       </c>
       <c r="M12" t="n">
-        <v>538.2160617443616</v>
+        <v>578.1862943299407</v>
       </c>
       <c r="N12" t="n">
-        <v>719.3255487902676</v>
+        <v>759.2957813758467</v>
       </c>
       <c r="O12" t="n">
-        <v>870.5624799478342</v>
+        <v>910.5327125334132</v>
       </c>
       <c r="P12" t="n">
-        <v>979.3769574270258</v>
+        <v>1019.347190012605</v>
       </c>
       <c r="Q12" t="n">
-        <v>1019.669076260632</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="R12" t="n">
         <v>1059.639308846211</v>
       </c>
       <c r="S12" t="n">
-        <v>944.0643508107399</v>
+        <v>944.0643508107397</v>
       </c>
       <c r="T12" t="n">
-        <v>771.2807528987682</v>
+        <v>771.280752898768</v>
       </c>
       <c r="U12" t="n">
-        <v>771.2807528987682</v>
+        <v>771.280752898768</v>
       </c>
       <c r="V12" t="n">
-        <v>771.2807528987682</v>
+        <v>548.7407512698351</v>
       </c>
       <c r="W12" t="n">
-        <v>541.1635070320551</v>
+        <v>318.623505403122</v>
       </c>
       <c r="X12" t="n">
-        <v>541.1635070320551</v>
+        <v>129.3164277531336</v>
       </c>
       <c r="Y12" t="n">
-        <v>541.1635070320551</v>
+        <v>21.19278617692422</v>
       </c>
     </row>
     <row r="13">
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21.19278617692423</v>
+        <v>258.4885955628884</v>
       </c>
       <c r="C13" t="n">
-        <v>21.19278617692423</v>
+        <v>258.4885955628884</v>
       </c>
       <c r="D13" t="n">
-        <v>21.19278617692423</v>
+        <v>258.4885955628884</v>
       </c>
       <c r="E13" t="n">
-        <v>21.19278617692423</v>
+        <v>258.4885955628884</v>
       </c>
       <c r="F13" t="n">
-        <v>21.19278617692423</v>
+        <v>258.4885955628884</v>
       </c>
       <c r="G13" t="n">
-        <v>21.19278617692423</v>
+        <v>91.10816577170331</v>
       </c>
       <c r="H13" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="I13" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="J13" t="n">
-        <v>51.95514014370515</v>
+        <v>51.95514014370514</v>
       </c>
       <c r="K13" t="n">
-        <v>233.2695838627136</v>
+        <v>68.41451112003223</v>
       </c>
       <c r="L13" t="n">
-        <v>495.5303128021509</v>
+        <v>330.6752400594695</v>
       </c>
       <c r="M13" t="n">
-        <v>750.5196300267569</v>
+        <v>375.4958517032808</v>
       </c>
       <c r="N13" t="n">
-        <v>1012.780358966194</v>
+        <v>637.7565806427181</v>
       </c>
       <c r="O13" t="n">
-        <v>1044.709065655983</v>
+        <v>900.0173095821553</v>
       </c>
       <c r="P13" t="n">
         <v>1059.639308846211</v>
@@ -5223,28 +5223,28 @@
         <v>1059.639308846211</v>
       </c>
       <c r="R13" t="n">
-        <v>975.0196362509778</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="S13" t="n">
-        <v>787.4284380486276</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="T13" t="n">
-        <v>555.4421437750763</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="U13" t="n">
-        <v>287.8564597230027</v>
+        <v>792.0536247941377</v>
       </c>
       <c r="V13" t="n">
-        <v>21.87711454382691</v>
+        <v>526.0742796149619</v>
       </c>
       <c r="W13" t="n">
-        <v>21.19278617692423</v>
+        <v>258.4885955628884</v>
       </c>
       <c r="X13" t="n">
-        <v>21.19278617692423</v>
+        <v>258.4885955628884</v>
       </c>
       <c r="Y13" t="n">
-        <v>21.19278617692423</v>
+        <v>258.4885955628884</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>792.0536247941375</v>
+        <v>536.4567028359988</v>
       </c>
       <c r="C14" t="n">
-        <v>524.467940742064</v>
+        <v>536.4567028359988</v>
       </c>
       <c r="D14" t="n">
-        <v>524.467940742064</v>
+        <v>536.4567028359988</v>
       </c>
       <c r="E14" t="n">
-        <v>524.467940742064</v>
+        <v>288.7784702289978</v>
       </c>
       <c r="F14" t="n">
-        <v>256.8822566899905</v>
+        <v>288.7784702289978</v>
       </c>
       <c r="G14" t="n">
-        <v>256.8822566899905</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="H14" t="n">
         <v>21.19278617692422</v>
@@ -5290,13 +5290,13 @@
         <v>504.3442043438556</v>
       </c>
       <c r="N14" t="n">
-        <v>697.3156251608452</v>
+        <v>697.3156251608456</v>
       </c>
       <c r="O14" t="n">
-        <v>870.8651460022304</v>
+        <v>870.8651460022307</v>
       </c>
       <c r="P14" t="n">
-        <v>996.5599962719605</v>
+        <v>996.5599962719607</v>
       </c>
       <c r="Q14" t="n">
         <v>1059.639308846211</v>
@@ -5311,19 +5311,19 @@
         <v>1059.639308846211</v>
       </c>
       <c r="U14" t="n">
-        <v>1059.639308846211</v>
+        <v>804.0423868880723</v>
       </c>
       <c r="V14" t="n">
-        <v>1059.639308846211</v>
+        <v>804.0423868880723</v>
       </c>
       <c r="W14" t="n">
-        <v>1059.639308846211</v>
+        <v>536.4567028359988</v>
       </c>
       <c r="X14" t="n">
-        <v>1059.639308846211</v>
+        <v>536.4567028359988</v>
       </c>
       <c r="Y14" t="n">
-        <v>792.0536247941375</v>
+        <v>536.4567028359988</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>412.1600505614244</v>
+        <v>491.4071033150937</v>
       </c>
       <c r="C15" t="n">
-        <v>412.1600505614244</v>
+        <v>340.7528728751859</v>
       </c>
       <c r="D15" t="n">
-        <v>282.0710831829047</v>
+        <v>340.7528728751859</v>
       </c>
       <c r="E15" t="n">
-        <v>145.6245922937924</v>
+        <v>278.1518298288307</v>
       </c>
       <c r="F15" t="n">
-        <v>21.19278617692422</v>
+        <v>153.7200237119625</v>
       </c>
       <c r="G15" t="n">
-        <v>21.19278617692422</v>
+        <v>34.70226102508844</v>
       </c>
       <c r="H15" t="n">
-        <v>21.19278617692422</v>
+        <v>34.70226102508844</v>
       </c>
       <c r="I15" t="n">
         <v>21.19278617692422</v>
       </c>
       <c r="J15" t="n">
-        <v>162.084747688212</v>
+        <v>202.0549802737915</v>
       </c>
       <c r="K15" t="n">
-        <v>238.3042966027542</v>
+        <v>278.2745291883337</v>
       </c>
       <c r="L15" t="n">
-        <v>370.9005379457605</v>
+        <v>410.87077053134</v>
       </c>
       <c r="M15" t="n">
-        <v>538.2160617443611</v>
+        <v>578.1862943299407</v>
       </c>
       <c r="N15" t="n">
-        <v>719.3255487902671</v>
+        <v>759.2957813758467</v>
       </c>
       <c r="O15" t="n">
-        <v>870.5624799478337</v>
+        <v>910.5327125334132</v>
       </c>
       <c r="P15" t="n">
-        <v>979.3769574270253</v>
+        <v>1019.347190012605</v>
       </c>
       <c r="Q15" t="n">
-        <v>1019.669076260632</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="R15" t="n">
         <v>1059.639308846211</v>
       </c>
       <c r="S15" t="n">
-        <v>996.4909736868044</v>
+        <v>944.0643508107397</v>
       </c>
       <c r="T15" t="n">
-        <v>996.4909736868044</v>
+        <v>944.0643508107397</v>
       </c>
       <c r="U15" t="n">
-        <v>786.4963866313187</v>
+        <v>944.0643508107397</v>
       </c>
       <c r="V15" t="n">
-        <v>563.9563850023858</v>
+        <v>721.5243491818068</v>
       </c>
       <c r="W15" t="n">
-        <v>563.9563850023858</v>
+        <v>491.4071033150937</v>
       </c>
       <c r="X15" t="n">
-        <v>563.9563850023858</v>
+        <v>491.4071033150937</v>
       </c>
       <c r="Y15" t="n">
-        <v>563.9563850023858</v>
+        <v>491.4071033150937</v>
       </c>
     </row>
     <row r="16">
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21.19278617692422</v>
+        <v>295.3953817510875</v>
       </c>
       <c r="C16" t="n">
-        <v>21.19278617692422</v>
+        <v>295.3953817510875</v>
       </c>
       <c r="D16" t="n">
-        <v>21.19278617692422</v>
+        <v>295.3953817510875</v>
       </c>
       <c r="E16" t="n">
-        <v>21.19278617692422</v>
+        <v>295.3953817510875</v>
       </c>
       <c r="F16" t="n">
-        <v>21.19278617692422</v>
+        <v>295.3953817510875</v>
       </c>
       <c r="G16" t="n">
-        <v>21.19278617692422</v>
+        <v>128.0149519599024</v>
       </c>
       <c r="H16" t="n">
-        <v>21.19278617692422</v>
+        <v>128.0149519599024</v>
       </c>
       <c r="I16" t="n">
         <v>21.19278617692422</v>
       </c>
       <c r="J16" t="n">
-        <v>51.95514014370514</v>
+        <v>51.95514014370515</v>
       </c>
       <c r="K16" t="n">
-        <v>68.41451112003226</v>
+        <v>233.2695838627136</v>
       </c>
       <c r="L16" t="n">
-        <v>257.926878837671</v>
+        <v>273.7706804557584</v>
       </c>
       <c r="M16" t="n">
-        <v>520.1876077771083</v>
+        <v>318.5912920995697</v>
       </c>
       <c r="N16" t="n">
-        <v>782.4483367165456</v>
+        <v>580.852021039007</v>
       </c>
       <c r="O16" t="n">
-        <v>1044.709065655983</v>
+        <v>843.1127499784443</v>
       </c>
       <c r="P16" t="n">
         <v>1059.639308846211</v>
@@ -5460,28 +5460,28 @@
         <v>1059.639308846211</v>
       </c>
       <c r="R16" t="n">
-        <v>975.0196362509773</v>
+        <v>975.0196362509776</v>
       </c>
       <c r="S16" t="n">
-        <v>787.4284380486272</v>
+        <v>975.0196362509776</v>
       </c>
       <c r="T16" t="n">
-        <v>555.4421437750758</v>
+        <v>975.0196362509776</v>
       </c>
       <c r="U16" t="n">
-        <v>287.8564597230023</v>
+        <v>707.4339521989041</v>
       </c>
       <c r="V16" t="n">
-        <v>21.87711454382656</v>
+        <v>707.4339521989041</v>
       </c>
       <c r="W16" t="n">
-        <v>21.19278617692422</v>
+        <v>439.8482681468305</v>
       </c>
       <c r="X16" t="n">
-        <v>21.19278617692422</v>
+        <v>295.3953817510875</v>
       </c>
       <c r="Y16" t="n">
-        <v>21.19278617692422</v>
+        <v>295.3953817510875</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>288.7784702289978</v>
+        <v>823.9498383331447</v>
       </c>
       <c r="C17" t="n">
-        <v>288.7784702289978</v>
+        <v>823.9498383331447</v>
       </c>
       <c r="D17" t="n">
-        <v>288.7784702289978</v>
+        <v>556.3641542810713</v>
       </c>
       <c r="E17" t="n">
-        <v>288.7784702289978</v>
+        <v>288.7784702289977</v>
       </c>
       <c r="F17" t="n">
-        <v>21.19278617692423</v>
+        <v>288.7784702289977</v>
       </c>
       <c r="G17" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="H17" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="I17" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="J17" t="n">
-        <v>66.69998144344373</v>
+        <v>66.69998144344379</v>
       </c>
       <c r="K17" t="n">
-        <v>167.8835074844187</v>
+        <v>167.8835074844188</v>
       </c>
       <c r="L17" t="n">
-        <v>317.3967640053162</v>
+        <v>317.3967640053161</v>
       </c>
       <c r="M17" t="n">
-        <v>504.3442043438557</v>
+        <v>504.3442043438555</v>
       </c>
       <c r="N17" t="n">
-        <v>697.3156251608457</v>
+        <v>697.3156251608455</v>
       </c>
       <c r="O17" t="n">
-        <v>870.8651460022309</v>
+        <v>870.8651460022304</v>
       </c>
       <c r="P17" t="n">
-        <v>996.5599962719609</v>
+        <v>996.5599962719605</v>
       </c>
       <c r="Q17" t="n">
         <v>1059.639308846211</v>
@@ -5542,25 +5542,25 @@
         <v>1059.639308846211</v>
       </c>
       <c r="S17" t="n">
-        <v>937.5065769184637</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="T17" t="n">
-        <v>722.5315719877799</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="U17" t="n">
-        <v>466.934650029641</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="V17" t="n">
-        <v>288.7784702289978</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="W17" t="n">
-        <v>288.7784702289978</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="X17" t="n">
-        <v>288.7784702289978</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="Y17" t="n">
-        <v>288.7784702289978</v>
+        <v>823.9498383331447</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>34.70226102508845</v>
+        <v>369.098135873027</v>
       </c>
       <c r="C18" t="n">
-        <v>34.70226102508845</v>
+        <v>218.4439054331193</v>
       </c>
       <c r="D18" t="n">
-        <v>34.70226102508845</v>
+        <v>218.4439054331193</v>
       </c>
       <c r="E18" t="n">
-        <v>34.70226102508845</v>
+        <v>218.4439054331193</v>
       </c>
       <c r="F18" t="n">
-        <v>34.70226102508845</v>
+        <v>218.4439054331193</v>
       </c>
       <c r="G18" t="n">
-        <v>34.70226102508845</v>
+        <v>99.4261427462452</v>
       </c>
       <c r="H18" t="n">
-        <v>34.70226102508845</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="I18" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="J18" t="n">
-        <v>36.06495940012042</v>
+        <v>36.06495940012037</v>
       </c>
       <c r="K18" t="n">
-        <v>112.2845083146626</v>
+        <v>112.2845083146625</v>
       </c>
       <c r="L18" t="n">
-        <v>244.880749657669</v>
+        <v>244.8807496576689</v>
       </c>
       <c r="M18" t="n">
-        <v>412.1962734562696</v>
+        <v>412.1962734562695</v>
       </c>
       <c r="N18" t="n">
-        <v>593.3057605021756</v>
+        <v>593.3057605021755</v>
       </c>
       <c r="O18" t="n">
-        <v>744.5426916597423</v>
+        <v>744.5426916597421</v>
       </c>
       <c r="P18" t="n">
-        <v>853.357169138934</v>
+        <v>1006.803420599179</v>
       </c>
       <c r="Q18" t="n">
-        <v>1019.669076260632</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="R18" t="n">
         <v>1059.639308846211</v>
       </c>
       <c r="S18" t="n">
-        <v>944.0643508107399</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="T18" t="n">
-        <v>771.2807528987682</v>
+        <v>886.8557109342391</v>
       </c>
       <c r="U18" t="n">
-        <v>561.2861658432826</v>
+        <v>886.8557109342391</v>
       </c>
       <c r="V18" t="n">
-        <v>338.7461642143496</v>
+        <v>664.3157093053062</v>
       </c>
       <c r="W18" t="n">
-        <v>108.6289183476365</v>
+        <v>434.1984634385931</v>
       </c>
       <c r="X18" t="n">
-        <v>34.70226102508845</v>
+        <v>434.1984634385931</v>
       </c>
       <c r="Y18" t="n">
-        <v>34.70226102508845</v>
+        <v>434.1984634385931</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>178.5187209639513</v>
+        <v>188.5732159681093</v>
       </c>
       <c r="C19" t="n">
-        <v>178.5187209639513</v>
+        <v>188.5732159681093</v>
       </c>
       <c r="D19" t="n">
-        <v>178.5187209639513</v>
+        <v>188.5732159681093</v>
       </c>
       <c r="E19" t="n">
-        <v>178.5187209639513</v>
+        <v>188.5732159681093</v>
       </c>
       <c r="F19" t="n">
-        <v>21.19278617692423</v>
+        <v>188.5732159681093</v>
       </c>
       <c r="G19" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="H19" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="I19" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="J19" t="n">
-        <v>51.95514014370517</v>
+        <v>51.95514014370514</v>
       </c>
       <c r="K19" t="n">
-        <v>217.4257822446266</v>
+        <v>233.2695838627136</v>
       </c>
       <c r="L19" t="n">
-        <v>257.9268788376714</v>
+        <v>495.5303128021508</v>
       </c>
       <c r="M19" t="n">
-        <v>520.1876077771087</v>
+        <v>540.3509244459621</v>
       </c>
       <c r="N19" t="n">
-        <v>782.448336716546</v>
+        <v>589.2131939627425</v>
       </c>
       <c r="O19" t="n">
-        <v>1044.709065655983</v>
+        <v>761.0843935115428</v>
       </c>
       <c r="P19" t="n">
-        <v>1059.639308846211</v>
+        <v>984.5187730839759</v>
       </c>
       <c r="Q19" t="n">
         <v>1059.639308846211</v>
       </c>
       <c r="R19" t="n">
-        <v>975.0196362509778</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="S19" t="n">
-        <v>946.1640724122176</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="T19" t="n">
-        <v>946.1640724122176</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="U19" t="n">
-        <v>678.578388360144</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="V19" t="n">
-        <v>412.5990431809682</v>
+        <v>793.6599636670352</v>
       </c>
       <c r="W19" t="n">
-        <v>412.5990431809682</v>
+        <v>526.0742796149617</v>
       </c>
       <c r="X19" t="n">
-        <v>178.5187209639513</v>
+        <v>526.0742796149617</v>
       </c>
       <c r="Y19" t="n">
-        <v>178.5187209639513</v>
+        <v>373.7812346594106</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>53.89601385324158</v>
+        <v>556.3641542810713</v>
       </c>
       <c r="C20" t="n">
-        <v>53.89601385324158</v>
+        <v>556.3641542810713</v>
       </c>
       <c r="D20" t="n">
-        <v>53.89601385324158</v>
+        <v>556.3641542810713</v>
       </c>
       <c r="E20" t="n">
-        <v>53.89601385324158</v>
+        <v>288.7784702289977</v>
       </c>
       <c r="F20" t="n">
-        <v>53.89601385324158</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="G20" t="n">
-        <v>53.89601385324158</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="H20" t="n">
-        <v>53.89601385324158</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="I20" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="J20" t="n">
         <v>66.69998144344368</v>
@@ -5758,19 +5758,19 @@
         <v>167.8835074844187</v>
       </c>
       <c r="L20" t="n">
-        <v>317.3967640053162</v>
+        <v>317.3967640053161</v>
       </c>
       <c r="M20" t="n">
-        <v>504.3442043438557</v>
+        <v>504.3442043438555</v>
       </c>
       <c r="N20" t="n">
-        <v>697.3156251608457</v>
+        <v>697.3156251608453</v>
       </c>
       <c r="O20" t="n">
-        <v>870.8651460022307</v>
+        <v>870.8651460022303</v>
       </c>
       <c r="P20" t="n">
-        <v>996.5599962719607</v>
+        <v>996.5599962719605</v>
       </c>
       <c r="Q20" t="n">
         <v>1059.639308846211</v>
@@ -5779,25 +5779,25 @@
         <v>1059.639308846211</v>
       </c>
       <c r="S20" t="n">
-        <v>1059.639308846211</v>
+        <v>937.5065769184632</v>
       </c>
       <c r="T20" t="n">
-        <v>844.6643039155276</v>
+        <v>722.5315719877794</v>
       </c>
       <c r="U20" t="n">
-        <v>589.0673819573888</v>
+        <v>722.5315719877794</v>
       </c>
       <c r="V20" t="n">
-        <v>321.4816979053152</v>
+        <v>722.5315719877794</v>
       </c>
       <c r="W20" t="n">
-        <v>53.89601385324158</v>
+        <v>556.3641542810713</v>
       </c>
       <c r="X20" t="n">
-        <v>53.89601385324158</v>
+        <v>556.3641542810713</v>
       </c>
       <c r="Y20" t="n">
-        <v>53.89601385324158</v>
+        <v>556.3641542810713</v>
       </c>
     </row>
     <row r="21">
@@ -5807,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>606.9820613505653</v>
+        <v>28.3661797205981</v>
       </c>
       <c r="C21" t="n">
-        <v>606.9820613505653</v>
+        <v>28.3661797205981</v>
       </c>
       <c r="D21" t="n">
-        <v>492.831677287264</v>
+        <v>28.3661797205981</v>
       </c>
       <c r="E21" t="n">
-        <v>356.3851863981517</v>
+        <v>28.3661797205981</v>
       </c>
       <c r="F21" t="n">
-        <v>231.9533802812835</v>
+        <v>28.3661797205981</v>
       </c>
       <c r="G21" t="n">
-        <v>112.9356175944094</v>
+        <v>28.3661797205981</v>
       </c>
       <c r="H21" t="n">
-        <v>34.70226102508845</v>
+        <v>28.3661797205981</v>
       </c>
       <c r="I21" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="J21" t="n">
-        <v>36.06495940012042</v>
+        <v>202.0549802737913</v>
       </c>
       <c r="K21" t="n">
-        <v>112.2845083146626</v>
+        <v>278.2745291883335</v>
       </c>
       <c r="L21" t="n">
-        <v>244.880749657669</v>
+        <v>410.8707705313398</v>
       </c>
       <c r="M21" t="n">
-        <v>412.1962734562696</v>
+        <v>578.1862943299404</v>
       </c>
       <c r="N21" t="n">
-        <v>593.3057605021756</v>
+        <v>759.2957813758464</v>
       </c>
       <c r="O21" t="n">
-        <v>744.5426916597423</v>
+        <v>910.532712533413</v>
       </c>
       <c r="P21" t="n">
-        <v>853.357169138934</v>
+        <v>1019.347190012605</v>
       </c>
       <c r="Q21" t="n">
-        <v>1019.669076260632</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="R21" t="n">
         <v>1059.639308846211</v>
@@ -5864,19 +5864,19 @@
         <v>1059.639308846211</v>
       </c>
       <c r="U21" t="n">
-        <v>1059.639308846211</v>
+        <v>849.6447217907253</v>
       </c>
       <c r="V21" t="n">
-        <v>837.0993072172785</v>
+        <v>627.1047201617923</v>
       </c>
       <c r="W21" t="n">
-        <v>606.9820613505653</v>
+        <v>396.9874742950792</v>
       </c>
       <c r="X21" t="n">
-        <v>606.9820613505653</v>
+        <v>207.6803966450909</v>
       </c>
       <c r="Y21" t="n">
-        <v>606.9820613505653</v>
+        <v>28.3661797205981</v>
       </c>
     </row>
     <row r="22">
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>21.19278617692423</v>
+        <v>346.9567162517325</v>
       </c>
       <c r="C22" t="n">
-        <v>21.19278617692423</v>
+        <v>176.7515983177217</v>
       </c>
       <c r="D22" t="n">
-        <v>21.19278617692423</v>
+        <v>176.7515983177217</v>
       </c>
       <c r="E22" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="F22" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="G22" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="H22" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="I22" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="J22" t="n">
-        <v>51.95514014370517</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="K22" t="n">
-        <v>217.4257822446266</v>
+        <v>202.5072298959327</v>
       </c>
       <c r="L22" t="n">
-        <v>257.9268788376714</v>
+        <v>243.0083264889774</v>
       </c>
       <c r="M22" t="n">
-        <v>520.1876077771087</v>
+        <v>505.2690554284147</v>
       </c>
       <c r="N22" t="n">
-        <v>782.448336716546</v>
+        <v>767.5297843678519</v>
       </c>
       <c r="O22" t="n">
-        <v>1044.709065655983</v>
+        <v>836.2049292737777</v>
       </c>
       <c r="P22" t="n">
         <v>1059.639308846211</v>
@@ -5937,25 +5937,25 @@
         <v>1059.639308846211</v>
       </c>
       <c r="S22" t="n">
-        <v>1054.329793733799</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="T22" t="n">
-        <v>822.3434994602472</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="U22" t="n">
-        <v>554.7578154081737</v>
+        <v>804.1490996521061</v>
       </c>
       <c r="V22" t="n">
-        <v>288.7784702289978</v>
+        <v>804.1490996521061</v>
       </c>
       <c r="W22" t="n">
-        <v>21.19278617692423</v>
+        <v>804.1490996521061</v>
       </c>
       <c r="X22" t="n">
-        <v>21.19278617692423</v>
+        <v>570.0687774350891</v>
       </c>
       <c r="Y22" t="n">
-        <v>21.19278617692423</v>
+        <v>346.9567162517325</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>556.3641542810715</v>
+        <v>589.0673819573881</v>
       </c>
       <c r="C23" t="n">
-        <v>288.7784702289979</v>
+        <v>589.0673819573881</v>
       </c>
       <c r="D23" t="n">
-        <v>21.19278617692423</v>
+        <v>589.0673819573881</v>
       </c>
       <c r="E23" t="n">
-        <v>21.19278617692423</v>
+        <v>589.0673819573881</v>
       </c>
       <c r="F23" t="n">
-        <v>21.19278617692423</v>
+        <v>321.4816979053147</v>
       </c>
       <c r="G23" t="n">
-        <v>21.19278617692423</v>
+        <v>321.4816979053147</v>
       </c>
       <c r="H23" t="n">
-        <v>21.19278617692423</v>
+        <v>53.89601385324124</v>
       </c>
       <c r="I23" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="J23" t="n">
-        <v>66.69998144344379</v>
+        <v>66.69998144344368</v>
       </c>
       <c r="K23" t="n">
-        <v>167.8835074844186</v>
+        <v>167.8835074844187</v>
       </c>
       <c r="L23" t="n">
-        <v>317.396764005316</v>
+        <v>317.3967640053161</v>
       </c>
       <c r="M23" t="n">
-        <v>504.3442043438554</v>
+        <v>504.3442043438555</v>
       </c>
       <c r="N23" t="n">
-        <v>697.3156251608453</v>
+        <v>697.3156251608456</v>
       </c>
       <c r="O23" t="n">
         <v>870.8651460022307</v>
       </c>
       <c r="P23" t="n">
-        <v>996.5599962719612</v>
+        <v>996.5599962719602</v>
       </c>
       <c r="Q23" t="n">
-        <v>1059.639308846212</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="R23" t="n">
-        <v>1059.639308846212</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="S23" t="n">
-        <v>1059.639308846212</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="T23" t="n">
-        <v>1059.639308846212</v>
+        <v>844.6643039155269</v>
       </c>
       <c r="U23" t="n">
-        <v>1059.639308846212</v>
+        <v>589.0673819573881</v>
       </c>
       <c r="V23" t="n">
-        <v>1059.639308846212</v>
+        <v>589.0673819573881</v>
       </c>
       <c r="W23" t="n">
-        <v>1059.639308846212</v>
+        <v>589.0673819573881</v>
       </c>
       <c r="X23" t="n">
-        <v>823.9498383331452</v>
+        <v>589.0673819573881</v>
       </c>
       <c r="Y23" t="n">
-        <v>556.3641542810715</v>
+        <v>589.0673819573881</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>296.2788227337002</v>
+        <v>28.36617972059787</v>
       </c>
       <c r="C24" t="n">
-        <v>145.6245922937924</v>
+        <v>28.36617972059787</v>
       </c>
       <c r="D24" t="n">
-        <v>145.6245922937924</v>
+        <v>28.36617972059787</v>
       </c>
       <c r="E24" t="n">
-        <v>145.6245922937924</v>
+        <v>28.36617972059787</v>
       </c>
       <c r="F24" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="G24" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="H24" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="I24" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="J24" t="n">
-        <v>162.0847476882126</v>
+        <v>202.054980273791</v>
       </c>
       <c r="K24" t="n">
-        <v>238.3042966027548</v>
+        <v>278.2745291883332</v>
       </c>
       <c r="L24" t="n">
-        <v>370.9005379457612</v>
+        <v>410.8707705313396</v>
       </c>
       <c r="M24" t="n">
-        <v>538.2160617443618</v>
+        <v>578.1862943299402</v>
       </c>
       <c r="N24" t="n">
-        <v>719.3255487902678</v>
+        <v>759.2957813758462</v>
       </c>
       <c r="O24" t="n">
-        <v>870.5624799478344</v>
+        <v>910.5327125334128</v>
       </c>
       <c r="P24" t="n">
-        <v>979.376957427026</v>
+        <v>1019.347190012604</v>
       </c>
       <c r="Q24" t="n">
-        <v>1019.669076260632</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="R24" t="n">
-        <v>1059.639308846212</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="S24" t="n">
-        <v>1059.639308846212</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="T24" t="n">
-        <v>1046.813697615856</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="U24" t="n">
-        <v>1046.813697615856</v>
+        <v>849.644721790725</v>
       </c>
       <c r="V24" t="n">
-        <v>1046.813697615856</v>
+        <v>627.1047201617921</v>
       </c>
       <c r="W24" t="n">
-        <v>816.6964517491426</v>
+        <v>396.987474295079</v>
       </c>
       <c r="X24" t="n">
-        <v>627.3893740991543</v>
+        <v>207.6803966450906</v>
       </c>
       <c r="Y24" t="n">
-        <v>448.0751571746616</v>
+        <v>28.36617972059787</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>417.2389067545367</v>
+        <v>348.7238388979621</v>
       </c>
       <c r="C25" t="n">
-        <v>332.384711415207</v>
+        <v>178.5187209639513</v>
       </c>
       <c r="D25" t="n">
-        <v>176.7515983177217</v>
+        <v>178.5187209639513</v>
       </c>
       <c r="E25" t="n">
-        <v>21.19278617692423</v>
+        <v>178.5187209639513</v>
       </c>
       <c r="F25" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="G25" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="H25" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="I25" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="J25" t="n">
-        <v>51.95514014370516</v>
+        <v>51.95514014370514</v>
       </c>
       <c r="K25" t="n">
-        <v>233.2695838627136</v>
+        <v>68.41451112003224</v>
       </c>
       <c r="L25" t="n">
-        <v>495.530312802151</v>
+        <v>330.6752400594694</v>
       </c>
       <c r="M25" t="n">
-        <v>540.3509244459623</v>
+        <v>592.9359689989066</v>
       </c>
       <c r="N25" t="n">
-        <v>589.2131939627427</v>
+        <v>855.1966979383437</v>
       </c>
       <c r="O25" t="n">
-        <v>761.0843935115433</v>
+        <v>887.1254046281329</v>
       </c>
       <c r="P25" t="n">
-        <v>984.5187730839766</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="Q25" t="n">
-        <v>1059.639308846212</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="R25" t="n">
-        <v>1059.639308846212</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="S25" t="n">
-        <v>1059.639308846212</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="T25" t="n">
-        <v>1059.639308846212</v>
+        <v>827.6530145726593</v>
       </c>
       <c r="U25" t="n">
-        <v>1059.639308846212</v>
+        <v>827.6530145726593</v>
       </c>
       <c r="V25" t="n">
-        <v>1059.639308846212</v>
+        <v>757.04391877262</v>
       </c>
       <c r="W25" t="n">
-        <v>1059.639308846212</v>
+        <v>757.04391877262</v>
       </c>
       <c r="X25" t="n">
-        <v>825.5589866291947</v>
+        <v>757.04391877262</v>
       </c>
       <c r="Y25" t="n">
-        <v>602.446925445838</v>
+        <v>533.9318575892634</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>556.3641542810715</v>
+        <v>402.3352088143163</v>
       </c>
       <c r="C26" t="n">
-        <v>288.7784702289978</v>
+        <v>402.3352088143163</v>
       </c>
       <c r="D26" t="n">
-        <v>288.7784702289978</v>
+        <v>134.7495247622428</v>
       </c>
       <c r="E26" t="n">
-        <v>21.19278617692423</v>
+        <v>134.7495247622428</v>
       </c>
       <c r="F26" t="n">
-        <v>21.19278617692423</v>
+        <v>134.7495247622428</v>
       </c>
       <c r="G26" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="H26" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="I26" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="J26" t="n">
         <v>66.69998144344382</v>
       </c>
       <c r="K26" t="n">
-        <v>167.8835074844188</v>
+        <v>167.8835074844187</v>
       </c>
       <c r="L26" t="n">
-        <v>317.3967640053162</v>
+        <v>317.3967640053163</v>
       </c>
       <c r="M26" t="n">
         <v>504.3442043438556</v>
@@ -6244,7 +6244,7 @@
         <v>870.8651460022306</v>
       </c>
       <c r="P26" t="n">
-        <v>996.5599962719609</v>
+        <v>996.5599962719605</v>
       </c>
       <c r="Q26" t="n">
         <v>1059.639308846211</v>
@@ -6253,25 +6253,25 @@
         <v>1059.639308846211</v>
       </c>
       <c r="S26" t="n">
-        <v>1059.639308846211</v>
+        <v>937.5065769184632</v>
       </c>
       <c r="T26" t="n">
-        <v>1059.639308846211</v>
+        <v>937.5065769184632</v>
       </c>
       <c r="U26" t="n">
-        <v>1059.639308846211</v>
+        <v>937.5065769184632</v>
       </c>
       <c r="V26" t="n">
-        <v>1059.639308846211</v>
+        <v>937.5065769184632</v>
       </c>
       <c r="W26" t="n">
-        <v>1059.639308846211</v>
+        <v>937.5065769184632</v>
       </c>
       <c r="X26" t="n">
-        <v>823.9498383331451</v>
+        <v>937.5065769184632</v>
       </c>
       <c r="Y26" t="n">
-        <v>823.9498383331451</v>
+        <v>669.9208928663897</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>108.6289183476365</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="C27" t="n">
-        <v>108.6289183476365</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="D27" t="n">
-        <v>108.6289183476365</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="E27" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="F27" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="G27" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="H27" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="I27" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="J27" t="n">
-        <v>36.0649594001204</v>
+        <v>36.06495940012037</v>
       </c>
       <c r="K27" t="n">
-        <v>112.2845083146626</v>
+        <v>112.2845083146625</v>
       </c>
       <c r="L27" t="n">
-        <v>244.880749657669</v>
+        <v>244.8807496576689</v>
       </c>
       <c r="M27" t="n">
-        <v>412.1962734562696</v>
+        <v>412.1962734562695</v>
       </c>
       <c r="N27" t="n">
-        <v>593.3057605021756</v>
+        <v>674.4570023957067</v>
       </c>
       <c r="O27" t="n">
-        <v>744.5426916597422</v>
+        <v>910.532712533413</v>
       </c>
       <c r="P27" t="n">
-        <v>853.3571691389338</v>
+        <v>1019.347190012605</v>
       </c>
       <c r="Q27" t="n">
         <v>1059.639308846211</v>
@@ -6332,25 +6332,25 @@
         <v>1059.639308846211</v>
       </c>
       <c r="S27" t="n">
-        <v>944.0643508107399</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="T27" t="n">
-        <v>771.2807528987682</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="U27" t="n">
-        <v>561.2861658432826</v>
+        <v>849.6447217907253</v>
       </c>
       <c r="V27" t="n">
-        <v>338.7461642143496</v>
+        <v>627.1047201617923</v>
       </c>
       <c r="W27" t="n">
-        <v>108.6289183476365</v>
+        <v>396.9874742950792</v>
       </c>
       <c r="X27" t="n">
-        <v>108.6289183476365</v>
+        <v>207.6803966450909</v>
       </c>
       <c r="Y27" t="n">
-        <v>108.6289183476365</v>
+        <v>28.3661797205981</v>
       </c>
     </row>
     <row r="28">
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>21.19278617692423</v>
+        <v>188.5732159681093</v>
       </c>
       <c r="C28" t="n">
-        <v>21.19278617692423</v>
+        <v>188.5732159681093</v>
       </c>
       <c r="D28" t="n">
-        <v>21.19278617692423</v>
+        <v>188.5732159681093</v>
       </c>
       <c r="E28" t="n">
-        <v>21.19278617692423</v>
+        <v>188.5732159681093</v>
       </c>
       <c r="F28" t="n">
-        <v>21.19278617692423</v>
+        <v>188.5732159681093</v>
       </c>
       <c r="G28" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="H28" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="I28" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="J28" t="n">
-        <v>51.95514014370515</v>
+        <v>51.95514014370514</v>
       </c>
       <c r="K28" t="n">
         <v>233.2695838627136</v>
       </c>
       <c r="L28" t="n">
-        <v>495.5303128021509</v>
+        <v>495.5303128021508</v>
       </c>
       <c r="M28" t="n">
-        <v>755.4139530672086</v>
+        <v>540.3509244459621</v>
       </c>
       <c r="N28" t="n">
-        <v>804.276222583989</v>
+        <v>589.2131939627425</v>
       </c>
       <c r="O28" t="n">
-        <v>836.2049292737781</v>
+        <v>761.0843935115428</v>
       </c>
       <c r="P28" t="n">
-        <v>1059.639308846211</v>
+        <v>984.5187730839759</v>
       </c>
       <c r="Q28" t="n">
         <v>1059.639308846211</v>
@@ -6411,25 +6411,25 @@
         <v>1059.639308846211</v>
       </c>
       <c r="S28" t="n">
-        <v>872.0481106438613</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="T28" t="n">
-        <v>640.0618163703099</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="U28" t="n">
-        <v>372.4761323182363</v>
+        <v>956.2185674163754</v>
       </c>
       <c r="V28" t="n">
-        <v>288.7784702289978</v>
+        <v>690.2392222371997</v>
       </c>
       <c r="W28" t="n">
-        <v>21.19278617692423</v>
+        <v>422.6535381851262</v>
       </c>
       <c r="X28" t="n">
-        <v>21.19278617692423</v>
+        <v>188.5732159681093</v>
       </c>
       <c r="Y28" t="n">
-        <v>21.19278617692423</v>
+        <v>188.5732159681093</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>792.0536247941378</v>
+        <v>937.5065769184632</v>
       </c>
       <c r="C29" t="n">
-        <v>792.0536247941378</v>
+        <v>669.9208928663897</v>
       </c>
       <c r="D29" t="n">
-        <v>792.0536247941378</v>
+        <v>619.6166114512216</v>
       </c>
       <c r="E29" t="n">
-        <v>556.3641542810715</v>
+        <v>619.6166114512216</v>
       </c>
       <c r="F29" t="n">
-        <v>288.7784702289978</v>
+        <v>352.0309273991482</v>
       </c>
       <c r="G29" t="n">
-        <v>21.19278617692423</v>
+        <v>84.44524334707474</v>
       </c>
       <c r="H29" t="n">
-        <v>21.19278617692423</v>
+        <v>84.44524334707474</v>
       </c>
       <c r="I29" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="J29" t="n">
-        <v>66.6999814434439</v>
+        <v>66.69998144344373</v>
       </c>
       <c r="K29" t="n">
-        <v>167.8835074844189</v>
+        <v>167.8835074844188</v>
       </c>
       <c r="L29" t="n">
-        <v>317.3967640053165</v>
+        <v>317.3967640053162</v>
       </c>
       <c r="M29" t="n">
-        <v>504.3442043438559</v>
+        <v>504.3442043438556</v>
       </c>
       <c r="N29" t="n">
-        <v>697.3156251608459</v>
+        <v>697.3156251608452</v>
       </c>
       <c r="O29" t="n">
-        <v>870.865146002231</v>
+        <v>870.8651460022304</v>
       </c>
       <c r="P29" t="n">
-        <v>996.5599962719609</v>
+        <v>996.5599962719605</v>
       </c>
       <c r="Q29" t="n">
         <v>1059.639308846211</v>
@@ -6490,25 +6490,25 @@
         <v>1059.639308846211</v>
       </c>
       <c r="S29" t="n">
-        <v>1059.639308846211</v>
+        <v>937.5065769184632</v>
       </c>
       <c r="T29" t="n">
-        <v>1059.639308846211</v>
+        <v>937.5065769184632</v>
       </c>
       <c r="U29" t="n">
-        <v>1059.639308846211</v>
+        <v>937.5065769184632</v>
       </c>
       <c r="V29" t="n">
-        <v>1059.639308846211</v>
+        <v>937.5065769184632</v>
       </c>
       <c r="W29" t="n">
-        <v>1059.639308846211</v>
+        <v>937.5065769184632</v>
       </c>
       <c r="X29" t="n">
-        <v>1059.639308846211</v>
+        <v>937.5065769184632</v>
       </c>
       <c r="Y29" t="n">
-        <v>1059.639308846211</v>
+        <v>937.5065769184632</v>
       </c>
     </row>
     <row r="30">
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>171.847016616832</v>
+        <v>140.2105488637983</v>
       </c>
       <c r="C30" t="n">
-        <v>21.19278617692423</v>
+        <v>140.2105488637983</v>
       </c>
       <c r="D30" t="n">
-        <v>21.19278617692423</v>
+        <v>140.2105488637983</v>
       </c>
       <c r="E30" t="n">
-        <v>21.19278617692423</v>
+        <v>140.2105488637983</v>
       </c>
       <c r="F30" t="n">
-        <v>21.19278617692423</v>
+        <v>140.2105488637983</v>
       </c>
       <c r="G30" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="H30" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="I30" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="J30" t="n">
-        <v>36.0649594001204</v>
+        <v>202.0549802737913</v>
       </c>
       <c r="K30" t="n">
-        <v>238.3042966027546</v>
+        <v>278.2745291883335</v>
       </c>
       <c r="L30" t="n">
-        <v>370.900537945761</v>
+        <v>410.8707705313398</v>
       </c>
       <c r="M30" t="n">
-        <v>538.2160617443616</v>
+        <v>578.1862943299404</v>
       </c>
       <c r="N30" t="n">
-        <v>719.3255487902676</v>
+        <v>759.2957813758464</v>
       </c>
       <c r="O30" t="n">
-        <v>870.5624799478342</v>
+        <v>910.532712533413</v>
       </c>
       <c r="P30" t="n">
-        <v>979.3769574270258</v>
+        <v>1019.347190012605</v>
       </c>
       <c r="Q30" t="n">
-        <v>1019.669076260632</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="R30" t="n">
         <v>1059.639308846211</v>
@@ -6575,19 +6575,19 @@
         <v>1059.639308846211</v>
       </c>
       <c r="U30" t="n">
-        <v>849.6447217907257</v>
+        <v>849.6447217907253</v>
       </c>
       <c r="V30" t="n">
-        <v>627.1047201617928</v>
+        <v>627.1047201617923</v>
       </c>
       <c r="W30" t="n">
-        <v>396.9874742950797</v>
+        <v>396.9874742950792</v>
       </c>
       <c r="X30" t="n">
-        <v>396.9874742950797</v>
+        <v>207.6803966450909</v>
       </c>
       <c r="Y30" t="n">
-        <v>323.6433510577934</v>
+        <v>140.2105488637983</v>
       </c>
     </row>
     <row r="31">
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>686.84009195256</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="C31" t="n">
-        <v>637.4218847047107</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="D31" t="n">
-        <v>481.7887716072254</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="E31" t="n">
-        <v>326.2299594664279</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="F31" t="n">
-        <v>168.9040246794009</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="G31" t="n">
-        <v>168.9040246794009</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="H31" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="I31" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="J31" t="n">
-        <v>51.95514014370515</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="K31" t="n">
-        <v>164.1331323498345</v>
+        <v>37.65215715325133</v>
       </c>
       <c r="L31" t="n">
-        <v>204.6342289428793</v>
+        <v>257.926878837671</v>
       </c>
       <c r="M31" t="n">
-        <v>466.8949578823166</v>
+        <v>520.1876077771083</v>
       </c>
       <c r="N31" t="n">
-        <v>729.155686821754</v>
+        <v>782.4483367165456</v>
       </c>
       <c r="O31" t="n">
-        <v>761.0843935115431</v>
+        <v>1044.709065655983</v>
       </c>
       <c r="P31" t="n">
-        <v>984.5187730839764</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="Q31" t="n">
         <v>1059.639308846211</v>
@@ -6648,25 +6648,25 @@
         <v>1059.639308846211</v>
       </c>
       <c r="S31" t="n">
-        <v>872.0481106438613</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="T31" t="n">
-        <v>872.0481106438613</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="U31" t="n">
-        <v>872.0481106438613</v>
+        <v>974.0461563164916</v>
       </c>
       <c r="V31" t="n">
-        <v>872.0481106438613</v>
+        <v>708.0668111373159</v>
       </c>
       <c r="W31" t="n">
-        <v>872.0481106438613</v>
+        <v>440.4811270852424</v>
       </c>
       <c r="X31" t="n">
-        <v>872.0481106438613</v>
+        <v>206.4008048682255</v>
       </c>
       <c r="Y31" t="n">
-        <v>872.0481106438613</v>
+        <v>206.4008048682255</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>256.8822566899905</v>
+        <v>288.7784702289977</v>
       </c>
       <c r="C32" t="n">
-        <v>256.8822566899905</v>
+        <v>288.7784702289977</v>
       </c>
       <c r="D32" t="n">
-        <v>256.8822566899905</v>
+        <v>288.7784702289977</v>
       </c>
       <c r="E32" t="n">
-        <v>256.8822566899905</v>
+        <v>288.7784702289977</v>
       </c>
       <c r="F32" t="n">
-        <v>21.19278617692422</v>
+        <v>288.7784702289977</v>
       </c>
       <c r="G32" t="n">
         <v>21.19278617692422</v>
@@ -6700,22 +6700,22 @@
         <v>21.19278617692422</v>
       </c>
       <c r="J32" t="n">
-        <v>66.69998144344379</v>
+        <v>66.69998144344373</v>
       </c>
       <c r="K32" t="n">
-        <v>167.8835074844187</v>
+        <v>167.8835074844188</v>
       </c>
       <c r="L32" t="n">
-        <v>317.3967640053161</v>
+        <v>317.3967640053162</v>
       </c>
       <c r="M32" t="n">
-        <v>504.3442043438555</v>
+        <v>504.3442043438556</v>
       </c>
       <c r="N32" t="n">
-        <v>697.3156251608455</v>
+        <v>697.3156251608452</v>
       </c>
       <c r="O32" t="n">
-        <v>870.8651460022305</v>
+        <v>870.8651460022304</v>
       </c>
       <c r="P32" t="n">
         <v>996.5599962719605</v>
@@ -6727,25 +6727,25 @@
         <v>1059.639308846211</v>
       </c>
       <c r="S32" t="n">
-        <v>1059.639308846211</v>
+        <v>937.5065769184632</v>
       </c>
       <c r="T32" t="n">
-        <v>1059.639308846211</v>
+        <v>722.5315719877794</v>
       </c>
       <c r="U32" t="n">
-        <v>1059.639308846211</v>
+        <v>556.3641542810713</v>
       </c>
       <c r="V32" t="n">
-        <v>792.0536247941375</v>
+        <v>556.3641542810713</v>
       </c>
       <c r="W32" t="n">
-        <v>524.467940742064</v>
+        <v>556.3641542810713</v>
       </c>
       <c r="X32" t="n">
-        <v>524.467940742064</v>
+        <v>556.3641542810713</v>
       </c>
       <c r="Y32" t="n">
-        <v>256.8822566899905</v>
+        <v>288.7784702289977</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>21.19278617692422</v>
+        <v>498.4115116140438</v>
       </c>
       <c r="C33" t="n">
-        <v>21.19278617692422</v>
+        <v>347.757281174136</v>
       </c>
       <c r="D33" t="n">
-        <v>21.19278617692422</v>
+        <v>223.8579488631134</v>
       </c>
       <c r="E33" t="n">
-        <v>21.19278617692422</v>
+        <v>223.8579488631134</v>
       </c>
       <c r="F33" t="n">
-        <v>21.19278617692422</v>
+        <v>99.4261427462452</v>
       </c>
       <c r="G33" t="n">
-        <v>21.19278617692422</v>
+        <v>99.4261427462452</v>
       </c>
       <c r="H33" t="n">
         <v>21.19278617692422</v>
@@ -6806,25 +6806,25 @@
         <v>1059.639308846211</v>
       </c>
       <c r="S33" t="n">
-        <v>1014.95517209351</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="T33" t="n">
-        <v>1014.95517209351</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="U33" t="n">
-        <v>804.9605850380244</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="V33" t="n">
-        <v>582.4205834090915</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="W33" t="n">
-        <v>352.3033375423784</v>
+        <v>829.5220629794978</v>
       </c>
       <c r="X33" t="n">
-        <v>352.3033375423784</v>
+        <v>829.5220629794978</v>
       </c>
       <c r="Y33" t="n">
-        <v>172.9891206178856</v>
+        <v>650.2078460550051</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>348.7238388979621</v>
+        <v>657.0910759934191</v>
       </c>
       <c r="C34" t="n">
-        <v>178.5187209639513</v>
+        <v>657.0910759934191</v>
       </c>
       <c r="D34" t="n">
-        <v>178.5187209639513</v>
+        <v>501.4579628959339</v>
       </c>
       <c r="E34" t="n">
-        <v>178.5187209639513</v>
+        <v>345.8991507551364</v>
       </c>
       <c r="F34" t="n">
-        <v>21.19278617692422</v>
+        <v>188.5732159681093</v>
       </c>
       <c r="G34" t="n">
         <v>21.19278617692422</v>
@@ -6888,22 +6888,22 @@
         <v>872.0481106438608</v>
       </c>
       <c r="T34" t="n">
-        <v>640.0618163703094</v>
+        <v>872.0481106438608</v>
       </c>
       <c r="U34" t="n">
-        <v>640.0618163703094</v>
+        <v>872.0481106438608</v>
       </c>
       <c r="V34" t="n">
-        <v>640.0618163703094</v>
+        <v>872.0481106438608</v>
       </c>
       <c r="W34" t="n">
-        <v>640.0618163703094</v>
+        <v>872.0481106438608</v>
       </c>
       <c r="X34" t="n">
-        <v>640.0618163703094</v>
+        <v>657.0910759934191</v>
       </c>
       <c r="Y34" t="n">
-        <v>533.9318575892634</v>
+        <v>657.0910759934191</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>352.0309273991484</v>
+        <v>669.9208928663901</v>
       </c>
       <c r="C35" t="n">
-        <v>352.0309273991484</v>
+        <v>669.9208928663901</v>
       </c>
       <c r="D35" t="n">
-        <v>352.0309273991484</v>
+        <v>669.9208928663901</v>
       </c>
       <c r="E35" t="n">
-        <v>352.0309273991484</v>
+        <v>402.3352088143165</v>
       </c>
       <c r="F35" t="n">
-        <v>84.44524334707475</v>
+        <v>402.3352088143165</v>
       </c>
       <c r="G35" t="n">
-        <v>84.44524334707475</v>
+        <v>134.7495247622429</v>
       </c>
       <c r="H35" t="n">
-        <v>84.44524334707475</v>
+        <v>21.19278617692423</v>
       </c>
       <c r="I35" t="n">
         <v>21.19278617692423</v>
@@ -6940,22 +6940,22 @@
         <v>66.6999814434439</v>
       </c>
       <c r="K35" t="n">
-        <v>167.8835074844187</v>
+        <v>167.8835074844189</v>
       </c>
       <c r="L35" t="n">
-        <v>317.3967640053161</v>
+        <v>317.3967640053164</v>
       </c>
       <c r="M35" t="n">
-        <v>504.3442043438556</v>
+        <v>504.3442043438561</v>
       </c>
       <c r="N35" t="n">
-        <v>697.3156251608455</v>
+        <v>697.3156251608459</v>
       </c>
       <c r="O35" t="n">
-        <v>870.8651460022305</v>
+        <v>870.8651460022311</v>
       </c>
       <c r="P35" t="n">
-        <v>996.5599962719607</v>
+        <v>996.5599962719609</v>
       </c>
       <c r="Q35" t="n">
         <v>1059.639308846211</v>
@@ -6964,25 +6964,25 @@
         <v>1059.639308846211</v>
       </c>
       <c r="S35" t="n">
-        <v>1059.639308846211</v>
+        <v>937.5065769184637</v>
       </c>
       <c r="T35" t="n">
-        <v>875.2135334093608</v>
+        <v>937.5065769184637</v>
       </c>
       <c r="U35" t="n">
-        <v>619.616611451222</v>
+        <v>937.5065769184637</v>
       </c>
       <c r="V35" t="n">
-        <v>619.616611451222</v>
+        <v>937.5065769184637</v>
       </c>
       <c r="W35" t="n">
-        <v>619.616611451222</v>
+        <v>937.5065769184637</v>
       </c>
       <c r="X35" t="n">
-        <v>352.0309273991484</v>
+        <v>937.5065769184637</v>
       </c>
       <c r="Y35" t="n">
-        <v>352.0309273991484</v>
+        <v>669.9208928663901</v>
       </c>
     </row>
     <row r="36">
@@ -6992,31 +6992,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>21.19278617692423</v>
+        <v>34.70226102508845</v>
       </c>
       <c r="C36" t="n">
-        <v>21.19278617692423</v>
+        <v>34.70226102508845</v>
       </c>
       <c r="D36" t="n">
-        <v>21.19278617692423</v>
+        <v>34.70226102508845</v>
       </c>
       <c r="E36" t="n">
-        <v>21.19278617692423</v>
+        <v>34.70226102508845</v>
       </c>
       <c r="F36" t="n">
-        <v>21.19278617692423</v>
+        <v>34.70226102508845</v>
       </c>
       <c r="G36" t="n">
-        <v>21.19278617692423</v>
+        <v>34.70226102508845</v>
       </c>
       <c r="H36" t="n">
-        <v>21.19278617692423</v>
+        <v>34.70226102508845</v>
       </c>
       <c r="I36" t="n">
         <v>21.19278617692423</v>
       </c>
       <c r="J36" t="n">
-        <v>36.0649594001204</v>
+        <v>162.0847476882124</v>
       </c>
       <c r="K36" t="n">
         <v>238.3042966027546</v>
@@ -7046,22 +7046,22 @@
         <v>1059.639308846211</v>
       </c>
       <c r="T36" t="n">
-        <v>1059.639308846211</v>
+        <v>886.8557109342396</v>
       </c>
       <c r="U36" t="n">
-        <v>994.2676626880127</v>
+        <v>855.9808030952156</v>
       </c>
       <c r="V36" t="n">
-        <v>771.7276610590798</v>
+        <v>633.4408014662827</v>
       </c>
       <c r="W36" t="n">
-        <v>541.6104151923666</v>
+        <v>403.3235555995695</v>
       </c>
       <c r="X36" t="n">
-        <v>352.3033375423784</v>
+        <v>214.0164779495812</v>
       </c>
       <c r="Y36" t="n">
-        <v>172.9891206178856</v>
+        <v>34.70226102508845</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>26.50230128933708</v>
+        <v>21.19278617692423</v>
       </c>
       <c r="C37" t="n">
-        <v>26.50230128933708</v>
+        <v>21.19278617692423</v>
       </c>
       <c r="D37" t="n">
-        <v>26.50230128933708</v>
+        <v>21.19278617692423</v>
       </c>
       <c r="E37" t="n">
-        <v>26.50230128933708</v>
+        <v>21.19278617692423</v>
       </c>
       <c r="F37" t="n">
-        <v>26.50230128933708</v>
+        <v>21.19278617692423</v>
       </c>
       <c r="G37" t="n">
-        <v>26.50230128933708</v>
+        <v>21.19278617692423</v>
       </c>
       <c r="H37" t="n">
         <v>21.19278617692423</v>
@@ -7101,16 +7101,16 @@
         <v>37.65215715325134</v>
       </c>
       <c r="L37" t="n">
-        <v>299.9128860926887</v>
+        <v>266.8628597510922</v>
       </c>
       <c r="M37" t="n">
-        <v>562.173615032126</v>
+        <v>311.6834713949035</v>
       </c>
       <c r="N37" t="n">
-        <v>824.4343439715633</v>
+        <v>573.9442003343408</v>
       </c>
       <c r="O37" t="n">
-        <v>1044.709065655983</v>
+        <v>836.2049292737781</v>
       </c>
       <c r="P37" t="n">
         <v>1059.639308846211</v>
@@ -7122,25 +7122,25 @@
         <v>1059.639308846211</v>
       </c>
       <c r="S37" t="n">
-        <v>1059.639308846211</v>
+        <v>1056.423821677264</v>
       </c>
       <c r="T37" t="n">
-        <v>827.65301457266</v>
+        <v>1056.423821677264</v>
       </c>
       <c r="U37" t="n">
-        <v>560.0673305205864</v>
+        <v>788.8381376251905</v>
       </c>
       <c r="V37" t="n">
-        <v>294.0879853414107</v>
+        <v>522.8587924460147</v>
       </c>
       <c r="W37" t="n">
-        <v>26.50230128933708</v>
+        <v>255.2731083939411</v>
       </c>
       <c r="X37" t="n">
-        <v>26.50230128933708</v>
+        <v>21.19278617692423</v>
       </c>
       <c r="Y37" t="n">
-        <v>26.50230128933708</v>
+        <v>21.19278617692423</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>288.7784702289978</v>
+        <v>577.0786198634537</v>
       </c>
       <c r="C38" t="n">
-        <v>21.19278617692423</v>
+        <v>309.4929358113802</v>
       </c>
       <c r="D38" t="n">
-        <v>21.19278617692423</v>
+        <v>309.4929358113802</v>
       </c>
       <c r="E38" t="n">
-        <v>21.19278617692423</v>
+        <v>41.90725175930675</v>
       </c>
       <c r="F38" t="n">
-        <v>21.19278617692423</v>
+        <v>41.90725175930675</v>
       </c>
       <c r="G38" t="n">
-        <v>21.19278617692423</v>
+        <v>41.90725175930675</v>
       </c>
       <c r="H38" t="n">
-        <v>21.19278617692423</v>
+        <v>41.90725175930675</v>
       </c>
       <c r="I38" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="J38" t="n">
-        <v>66.69998144344365</v>
+        <v>66.69998144344379</v>
       </c>
       <c r="K38" t="n">
-        <v>167.8835074844186</v>
+        <v>167.8835074844187</v>
       </c>
       <c r="L38" t="n">
-        <v>317.3967640053159</v>
+        <v>317.3967640053161</v>
       </c>
       <c r="M38" t="n">
-        <v>504.3442043438553</v>
+        <v>504.3442043438556</v>
       </c>
       <c r="N38" t="n">
-        <v>697.3156251608451</v>
+        <v>697.3156251608455</v>
       </c>
       <c r="O38" t="n">
-        <v>870.8651460022309</v>
+        <v>870.8651460022306</v>
       </c>
       <c r="P38" t="n">
-        <v>996.5599962719609</v>
+        <v>996.5599962719605</v>
       </c>
       <c r="Q38" t="n">
         <v>1059.639308846211</v>
@@ -7201,25 +7201,25 @@
         <v>1059.639308846211</v>
       </c>
       <c r="S38" t="n">
-        <v>937.5065769184637</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="T38" t="n">
-        <v>823.9498383331451</v>
+        <v>844.6643039155272</v>
       </c>
       <c r="U38" t="n">
-        <v>823.9498383331451</v>
+        <v>844.6643039155272</v>
       </c>
       <c r="V38" t="n">
-        <v>823.9498383331451</v>
+        <v>844.6643039155272</v>
       </c>
       <c r="W38" t="n">
-        <v>823.9498383331451</v>
+        <v>844.6643039155272</v>
       </c>
       <c r="X38" t="n">
-        <v>823.9498383331451</v>
+        <v>844.6643039155272</v>
       </c>
       <c r="Y38" t="n">
-        <v>556.3641542810715</v>
+        <v>577.0786198634537</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>171.847016616832</v>
+        <v>308.2935075059443</v>
       </c>
       <c r="C39" t="n">
-        <v>21.19278617692423</v>
+        <v>157.6392770660365</v>
       </c>
       <c r="D39" t="n">
-        <v>21.19278617692423</v>
+        <v>157.6392770660365</v>
       </c>
       <c r="E39" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="F39" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="G39" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="H39" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="I39" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="J39" t="n">
-        <v>36.06495940012039</v>
+        <v>202.0549802737913</v>
       </c>
       <c r="K39" t="n">
-        <v>112.2845083146626</v>
+        <v>278.2745291883335</v>
       </c>
       <c r="L39" t="n">
-        <v>244.8807496576689</v>
+        <v>410.8707705313398</v>
       </c>
       <c r="M39" t="n">
-        <v>412.1962734562695</v>
+        <v>578.1862943299404</v>
       </c>
       <c r="N39" t="n">
-        <v>593.3057605021755</v>
+        <v>759.2957813758464</v>
       </c>
       <c r="O39" t="n">
-        <v>744.5426916597421</v>
+        <v>910.532712533413</v>
       </c>
       <c r="P39" t="n">
-        <v>853.3571691389337</v>
+        <v>1019.347190012605</v>
       </c>
       <c r="Q39" t="n">
-        <v>1019.669076260632</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="R39" t="n">
         <v>1059.639308846211</v>
       </c>
       <c r="S39" t="n">
-        <v>1059.639308846211</v>
+        <v>944.0643508107395</v>
       </c>
       <c r="T39" t="n">
-        <v>1059.639308846211</v>
+        <v>861.9440605003313</v>
       </c>
       <c r="U39" t="n">
-        <v>1059.639308846211</v>
+        <v>861.9440605003313</v>
       </c>
       <c r="V39" t="n">
-        <v>837.0993072172785</v>
+        <v>639.4040588713983</v>
       </c>
       <c r="W39" t="n">
-        <v>692.2646456322746</v>
+        <v>639.4040588713983</v>
       </c>
       <c r="X39" t="n">
-        <v>502.9575679822862</v>
+        <v>639.4040588713983</v>
       </c>
       <c r="Y39" t="n">
-        <v>323.6433510577934</v>
+        <v>460.0898419469056</v>
       </c>
     </row>
     <row r="40">
@@ -7308,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>21.19278617692423</v>
+        <v>463.7280307692029</v>
       </c>
       <c r="C40" t="n">
-        <v>21.19278617692423</v>
+        <v>293.5229128351921</v>
       </c>
       <c r="D40" t="n">
-        <v>21.19278617692423</v>
+        <v>137.8897997377068</v>
       </c>
       <c r="E40" t="n">
-        <v>21.19278617692423</v>
+        <v>137.8897997377068</v>
       </c>
       <c r="F40" t="n">
-        <v>21.19278617692423</v>
+        <v>137.8897997377068</v>
       </c>
       <c r="G40" t="n">
-        <v>21.19278617692423</v>
+        <v>137.8897997377068</v>
       </c>
       <c r="H40" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="I40" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="J40" t="n">
-        <v>51.95514014370515</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="K40" t="n">
-        <v>68.41451112003224</v>
+        <v>37.65215715325133</v>
       </c>
       <c r="L40" t="n">
-        <v>257.9268788376714</v>
+        <v>257.926878837671</v>
       </c>
       <c r="M40" t="n">
-        <v>520.1876077771087</v>
+        <v>520.1876077771083</v>
       </c>
       <c r="N40" t="n">
-        <v>782.448336716546</v>
+        <v>782.4483367165456</v>
       </c>
       <c r="O40" t="n">
         <v>1044.709065655983</v>
@@ -7359,25 +7359,25 @@
         <v>1059.639308846211</v>
       </c>
       <c r="S40" t="n">
-        <v>1059.639308846211</v>
+        <v>872.0481106438608</v>
       </c>
       <c r="T40" t="n">
-        <v>1059.639308846211</v>
+        <v>872.0481106438608</v>
       </c>
       <c r="U40" t="n">
-        <v>1059.639308846211</v>
+        <v>872.0481106438608</v>
       </c>
       <c r="V40" t="n">
-        <v>931.1788723206727</v>
+        <v>872.0481106438608</v>
       </c>
       <c r="W40" t="n">
-        <v>663.5931882685991</v>
+        <v>872.0481106438608</v>
       </c>
       <c r="X40" t="n">
-        <v>429.5128660515821</v>
+        <v>872.0481106438608</v>
       </c>
       <c r="Y40" t="n">
-        <v>206.4008048682255</v>
+        <v>648.9360494605041</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>21.19278617692423</v>
+        <v>309.4929358113804</v>
       </c>
       <c r="C41" t="n">
-        <v>21.19278617692423</v>
+        <v>309.4929358113804</v>
       </c>
       <c r="D41" t="n">
-        <v>21.19278617692423</v>
+        <v>309.4929358113804</v>
       </c>
       <c r="E41" t="n">
-        <v>21.19278617692423</v>
+        <v>309.4929358113804</v>
       </c>
       <c r="F41" t="n">
-        <v>21.19278617692423</v>
+        <v>309.4929358113804</v>
       </c>
       <c r="G41" t="n">
-        <v>21.19278617692423</v>
+        <v>41.90725175930686</v>
       </c>
       <c r="H41" t="n">
-        <v>21.19278617692423</v>
+        <v>41.90725175930686</v>
       </c>
       <c r="I41" t="n">
         <v>21.19278617692423</v>
       </c>
       <c r="J41" t="n">
-        <v>66.69998144344379</v>
+        <v>66.6999814434439</v>
       </c>
       <c r="K41" t="n">
-        <v>167.8835074844187</v>
+        <v>167.8835074844189</v>
       </c>
       <c r="L41" t="n">
-        <v>317.3967640053161</v>
+        <v>317.3967640053165</v>
       </c>
       <c r="M41" t="n">
-        <v>504.3442043438555</v>
+        <v>504.3442043438561</v>
       </c>
       <c r="N41" t="n">
         <v>697.3156251608459</v>
       </c>
       <c r="O41" t="n">
-        <v>870.865146002231</v>
+        <v>870.8651460022311</v>
       </c>
       <c r="P41" t="n">
         <v>996.5599962719609</v>
@@ -7441,22 +7441,22 @@
         <v>1059.639308846211</v>
       </c>
       <c r="T41" t="n">
-        <v>1059.639308846211</v>
+        <v>844.6643039155276</v>
       </c>
       <c r="U41" t="n">
-        <v>1059.639308846211</v>
+        <v>844.6643039155276</v>
       </c>
       <c r="V41" t="n">
-        <v>792.0536247941378</v>
+        <v>577.078619863454</v>
       </c>
       <c r="W41" t="n">
-        <v>524.4679407420642</v>
+        <v>309.4929358113804</v>
       </c>
       <c r="X41" t="n">
-        <v>256.8822566899906</v>
+        <v>309.4929358113804</v>
       </c>
       <c r="Y41" t="n">
-        <v>256.8822566899906</v>
+        <v>309.4929358113804</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>21.19278617692423</v>
+        <v>412.1600505614244</v>
       </c>
       <c r="C42" t="n">
-        <v>21.19278617692423</v>
+        <v>412.1600505614244</v>
       </c>
       <c r="D42" t="n">
-        <v>21.19278617692423</v>
+        <v>282.0710831829047</v>
       </c>
       <c r="E42" t="n">
-        <v>21.19278617692423</v>
+        <v>145.6245922937924</v>
       </c>
       <c r="F42" t="n">
         <v>21.19278617692423</v>
@@ -7490,22 +7490,22 @@
         <v>21.19278617692423</v>
       </c>
       <c r="J42" t="n">
-        <v>36.06495940012039</v>
+        <v>162.0847476882124</v>
       </c>
       <c r="K42" t="n">
-        <v>112.2845083146626</v>
+        <v>238.3042966027546</v>
       </c>
       <c r="L42" t="n">
-        <v>244.8807496576689</v>
+        <v>370.900537945761</v>
       </c>
       <c r="M42" t="n">
-        <v>412.1962734562695</v>
+        <v>538.2160617443616</v>
       </c>
       <c r="N42" t="n">
-        <v>593.3057605021755</v>
+        <v>719.3255487902676</v>
       </c>
       <c r="O42" t="n">
-        <v>744.5426916597421</v>
+        <v>870.5624799478342</v>
       </c>
       <c r="P42" t="n">
         <v>979.3769574270258</v>
@@ -7517,25 +7517,25 @@
         <v>1059.639308846211</v>
       </c>
       <c r="S42" t="n">
-        <v>1045.935296290016</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="T42" t="n">
-        <v>873.1516983780443</v>
+        <v>886.8557109342396</v>
       </c>
       <c r="U42" t="n">
-        <v>663.1571113225586</v>
+        <v>886.8557109342396</v>
       </c>
       <c r="V42" t="n">
-        <v>440.6171096936257</v>
+        <v>886.8557109342396</v>
       </c>
       <c r="W42" t="n">
-        <v>210.4998638269126</v>
+        <v>886.8557109342396</v>
       </c>
       <c r="X42" t="n">
-        <v>21.19278617692423</v>
+        <v>743.2706019268785</v>
       </c>
       <c r="Y42" t="n">
-        <v>21.19278617692423</v>
+        <v>563.9563850023858</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>787.4284380486276</v>
+        <v>348.7238388979621</v>
       </c>
       <c r="C43" t="n">
-        <v>617.2233201146169</v>
+        <v>178.5187209639513</v>
       </c>
       <c r="D43" t="n">
-        <v>461.5902070171316</v>
+        <v>178.5187209639513</v>
       </c>
       <c r="E43" t="n">
-        <v>306.0313948763341</v>
+        <v>178.5187209639513</v>
       </c>
       <c r="F43" t="n">
-        <v>188.5732159681093</v>
+        <v>21.19278617692423</v>
       </c>
       <c r="G43" t="n">
         <v>21.19278617692423</v>
@@ -7572,19 +7572,19 @@
         <v>21.19278617692423</v>
       </c>
       <c r="K43" t="n">
-        <v>202.5072298959327</v>
+        <v>37.65215715325134</v>
       </c>
       <c r="L43" t="n">
-        <v>243.0083264889774</v>
+        <v>299.9128860926887</v>
       </c>
       <c r="M43" t="n">
-        <v>505.2690554284148</v>
+        <v>562.173615032126</v>
       </c>
       <c r="N43" t="n">
-        <v>767.5297843678521</v>
+        <v>824.4343439715633</v>
       </c>
       <c r="O43" t="n">
-        <v>836.2049292737782</v>
+        <v>1044.709065655983</v>
       </c>
       <c r="P43" t="n">
         <v>1059.639308846211</v>
@@ -7593,28 +7593,28 @@
         <v>1059.639308846211</v>
       </c>
       <c r="R43" t="n">
-        <v>975.0196362509778</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="S43" t="n">
-        <v>787.4284380486276</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="T43" t="n">
-        <v>787.4284380486276</v>
+        <v>827.65301457266</v>
       </c>
       <c r="U43" t="n">
-        <v>787.4284380486276</v>
+        <v>827.65301457266</v>
       </c>
       <c r="V43" t="n">
-        <v>787.4284380486276</v>
+        <v>827.65301457266</v>
       </c>
       <c r="W43" t="n">
-        <v>787.4284380486276</v>
+        <v>757.04391877262</v>
       </c>
       <c r="X43" t="n">
-        <v>787.4284380486276</v>
+        <v>757.04391877262</v>
       </c>
       <c r="Y43" t="n">
-        <v>787.4284380486276</v>
+        <v>533.9318575892634</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>792.0536247941378</v>
+        <v>288.7784702289978</v>
       </c>
       <c r="C44" t="n">
-        <v>792.0536247941378</v>
+        <v>288.7784702289978</v>
       </c>
       <c r="D44" t="n">
-        <v>524.4679407420642</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="E44" t="n">
-        <v>288.7784702289978</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="F44" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="G44" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="H44" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="I44" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="J44" t="n">
         <v>66.69998144344379</v>
       </c>
       <c r="K44" t="n">
-        <v>167.8835074844187</v>
+        <v>167.8835074844188</v>
       </c>
       <c r="L44" t="n">
         <v>317.3967640053161</v>
@@ -7660,13 +7660,13 @@
         <v>504.3442043438555</v>
       </c>
       <c r="N44" t="n">
-        <v>697.3156251608453</v>
+        <v>697.3156251608457</v>
       </c>
       <c r="O44" t="n">
-        <v>870.8651460022304</v>
+        <v>870.8651460022309</v>
       </c>
       <c r="P44" t="n">
-        <v>996.5599962719604</v>
+        <v>996.5599962719607</v>
       </c>
       <c r="Q44" t="n">
         <v>1059.639308846211</v>
@@ -7681,19 +7681,19 @@
         <v>1059.639308846211</v>
       </c>
       <c r="U44" t="n">
-        <v>1059.639308846211</v>
+        <v>823.9498383331447</v>
       </c>
       <c r="V44" t="n">
-        <v>1059.639308846211</v>
+        <v>556.3641542810713</v>
       </c>
       <c r="W44" t="n">
-        <v>1059.639308846211</v>
+        <v>556.3641542810713</v>
       </c>
       <c r="X44" t="n">
-        <v>1059.639308846211</v>
+        <v>288.7784702289978</v>
       </c>
       <c r="Y44" t="n">
-        <v>792.0536247941378</v>
+        <v>288.7784702289978</v>
       </c>
     </row>
     <row r="45">
@@ -7703,31 +7703,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>151.2817535554439</v>
+        <v>171.847016616832</v>
       </c>
       <c r="C45" t="n">
-        <v>151.2817535554439</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="D45" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="E45" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="F45" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="G45" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="H45" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="I45" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="J45" t="n">
-        <v>36.06495940012039</v>
+        <v>36.06495940012038</v>
       </c>
       <c r="K45" t="n">
         <v>112.2845083146626</v>
@@ -7739,40 +7739,40 @@
         <v>412.1962734562695</v>
       </c>
       <c r="N45" t="n">
-        <v>608.3017510083969</v>
+        <v>593.3057605021755</v>
       </c>
       <c r="O45" t="n">
-        <v>870.5624799478342</v>
+        <v>744.5426916597421</v>
       </c>
       <c r="P45" t="n">
-        <v>979.3769574270258</v>
+        <v>853.3571691389337</v>
       </c>
       <c r="Q45" t="n">
-        <v>1019.669076260632</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="R45" t="n">
         <v>1059.639308846211</v>
       </c>
       <c r="S45" t="n">
-        <v>965.7299225475372</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="T45" t="n">
-        <v>965.7299225475372</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="U45" t="n">
-        <v>755.7353354920514</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="V45" t="n">
-        <v>533.1953338631184</v>
+        <v>922.3818914989876</v>
       </c>
       <c r="W45" t="n">
-        <v>303.0780879964053</v>
+        <v>692.2646456322744</v>
       </c>
       <c r="X45" t="n">
-        <v>303.0780879964053</v>
+        <v>502.9575679822861</v>
       </c>
       <c r="Y45" t="n">
-        <v>303.0780879964053</v>
+        <v>323.6433510577933</v>
       </c>
     </row>
     <row r="46">
@@ -7782,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>787.4284380486276</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="C46" t="n">
-        <v>787.4284380486276</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="D46" t="n">
-        <v>755.9913671813888</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="E46" t="n">
-        <v>600.4325550405913</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="F46" t="n">
-        <v>443.1066202535642</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="G46" t="n">
-        <v>275.7261904623791</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="H46" t="n">
-        <v>128.0149519599024</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="I46" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="J46" t="n">
-        <v>21.19278617692423</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="K46" t="n">
-        <v>202.5072298959327</v>
+        <v>37.65215715325132</v>
       </c>
       <c r="L46" t="n">
-        <v>464.7679588353701</v>
+        <v>299.9128860926886</v>
       </c>
       <c r="M46" t="n">
-        <v>727.0286877748074</v>
+        <v>562.1736150321259</v>
       </c>
       <c r="N46" t="n">
-        <v>989.2894167142447</v>
+        <v>824.4343439715632</v>
       </c>
       <c r="O46" t="n">
         <v>1044.709065655983</v>
@@ -7830,28 +7830,28 @@
         <v>1059.639308846211</v>
       </c>
       <c r="R46" t="n">
-        <v>975.0196362509778</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="S46" t="n">
-        <v>787.4284380486276</v>
+        <v>872.048110643861</v>
       </c>
       <c r="T46" t="n">
-        <v>787.4284380486276</v>
+        <v>739.9658340994748</v>
       </c>
       <c r="U46" t="n">
-        <v>787.4284380486276</v>
+        <v>739.9658340994748</v>
       </c>
       <c r="V46" t="n">
-        <v>787.4284380486276</v>
+        <v>473.9864889202991</v>
       </c>
       <c r="W46" t="n">
-        <v>787.4284380486276</v>
+        <v>206.4008048682255</v>
       </c>
       <c r="X46" t="n">
-        <v>787.4284380486276</v>
+        <v>206.4008048682255</v>
       </c>
       <c r="Y46" t="n">
-        <v>787.4284380486276</v>
+        <v>206.4008048682255</v>
       </c>
     </row>
   </sheetData>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>19.01338565904574</v>
+        <v>19.01338565904575</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>127.2927154425172</v>
+        <v>167.666687751183</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>71.01380490566048</v>
+        <v>30.63983259699452</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,22 +8850,22 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K13" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>223.9996286327197</v>
       </c>
       <c r="M13" t="n">
-        <v>212.2916217987824</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>215.5539994168251</v>
+        <v>215.553999416825</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>232.6586083329779</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>146.1532889634623</v>
       </c>
       <c r="Q13" t="n">
         <v>26.05568601652959</v>
@@ -9005,7 +9005,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>127.2927154425168</v>
+        <v>167.6666877511829</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>71.01380490566048</v>
+        <v>30.63983259699451</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,22 +9087,22 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L16" t="n">
-        <v>150.5164354793879</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>219.6364821167938</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>215.553999416825</v>
       </c>
       <c r="O16" t="n">
-        <v>232.6586083329778</v>
+        <v>232.6586083329779</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>203.632642098524</v>
       </c>
       <c r="Q16" t="n">
         <v>26.05568601652959</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>19.01338565904572</v>
+        <v>19.01338565904575</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>154.9962135962077</v>
       </c>
       <c r="Q18" t="n">
-        <v>127.292715442517</v>
+        <v>12.67047415497501</v>
       </c>
       <c r="R18" t="n">
-        <v>71.01380490566048</v>
+        <v>30.63983259699452</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,25 +9324,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K19" t="n">
-        <v>150.5164354793882</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>223.9996286327197</v>
       </c>
       <c r="M19" t="n">
-        <v>219.6364821167939</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>215.5539994168251</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>232.6586083329779</v>
+        <v>141.3560533929406</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q19" t="n">
-        <v>26.05568601652958</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>19.01338565904572</v>
+        <v>19.01338565904574</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>167.6666877511827</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>127.292715442517</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>71.01380490566048</v>
+        <v>30.63983259699451</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>52.4725364634484</v>
+        <v>21.39945164851817</v>
       </c>
       <c r="K22" t="n">
-        <v>150.5164354793882</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>219.6364821167939</v>
+        <v>219.6364821167938</v>
       </c>
       <c r="N22" t="n">
-        <v>215.5539994168251</v>
+        <v>215.553999416825</v>
       </c>
       <c r="O22" t="n">
-        <v>232.6586083329779</v>
+        <v>37.11761435973398</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q22" t="n">
-        <v>26.05568601652958</v>
+        <v>26.05568601652959</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>127.2927154425174</v>
+        <v>167.6666877511825</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>71.01380490566048</v>
+        <v>30.63983259699451</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9798,25 +9798,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K25" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>223.9996286327198</v>
+        <v>223.9996286327196</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>219.6364821167938</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>215.5539994168249</v>
       </c>
       <c r="O25" t="n">
-        <v>141.3560533929409</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>210.6102387699041</v>
+        <v>159.1754151796462</v>
       </c>
       <c r="Q25" t="n">
-        <v>101.9350150692923</v>
+        <v>26.05568601652959</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>19.01338565904574</v>
+        <v>19.01338565904575</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9965,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>81.97095140760726</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>85.6957363435755</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>167.6666877511831</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>30.63983259699451</v>
+        <v>30.63983259699452</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10041,19 +10041,19 @@
         <v>223.9996286327197</v>
       </c>
       <c r="M28" t="n">
-        <v>217.2353824457034</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>141.3560533929406</v>
       </c>
       <c r="P28" t="n">
         <v>210.6102387699041</v>
       </c>
       <c r="Q28" t="n">
-        <v>26.05568601652959</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>167.6666877511827</v>
       </c>
       <c r="K30" t="n">
-        <v>127.2927154425172</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>71.01380490566048</v>
+        <v>30.63983259699451</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>52.4725364634484</v>
+        <v>21.39945164851817</v>
       </c>
       <c r="K31" t="n">
-        <v>96.68547598969927</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>181.5895202943181</v>
       </c>
       <c r="M31" t="n">
-        <v>219.636482116794</v>
+        <v>219.6364821167938</v>
       </c>
       <c r="N31" t="n">
-        <v>215.5539994168251</v>
+        <v>215.553999416825</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>232.6586083329778</v>
       </c>
       <c r="P31" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>101.9350150692923</v>
+        <v>26.05568601652959</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>127.2927154425172</v>
       </c>
       <c r="K36" t="n">
-        <v>127.2927154425172</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10749,19 +10749,19 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>223.9996286327197</v>
+        <v>190.6157636412082</v>
       </c>
       <c r="M37" t="n">
-        <v>219.636482116794</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>215.5539994168251</v>
       </c>
       <c r="O37" t="n">
-        <v>190.2484999945766</v>
+        <v>232.658608332978</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q37" t="n">
         <v>26.05568601652959</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>19.01338565904575</v>
+        <v>19.01338565904574</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>167.6666877511827</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>127.2927154425172</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>71.01380490566048</v>
+        <v>30.63983259699451</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,22 +10980,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>52.4725364634484</v>
+        <v>21.39945164851817</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>150.5164354793883</v>
+        <v>181.5895202943181</v>
       </c>
       <c r="M40" t="n">
-        <v>219.636482116794</v>
+        <v>219.6364821167938</v>
       </c>
       <c r="N40" t="n">
-        <v>215.5539994168251</v>
+        <v>215.553999416825</v>
       </c>
       <c r="O40" t="n">
-        <v>232.658608332978</v>
+        <v>232.6586083329778</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>19.01338565904575</v>
+        <v>19.01338565904574</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>127.2927154425172</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>127.2927154425173</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11217,13 +11217,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>21.39945164851818</v>
+        <v>21.39945164851817</v>
       </c>
       <c r="K43" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>223.9996286327197</v>
       </c>
       <c r="M43" t="n">
         <v>219.636482116794</v>
@@ -11232,10 +11232,10 @@
         <v>215.5539994168251</v>
       </c>
       <c r="O43" t="n">
-        <v>37.11761435973432</v>
+        <v>190.2484999945766</v>
       </c>
       <c r="P43" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>26.05568601652959</v>
@@ -11387,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>15.14746515779939</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>112.1452502847179</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>167.666687751183</v>
       </c>
       <c r="R45" t="n">
-        <v>71.01380490566048</v>
+        <v>30.63983259699452</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,7 +11457,7 @@
         <v>21.39945164851818</v>
       </c>
       <c r="K46" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>223.9996286327197</v>
@@ -11466,10 +11466,10 @@
         <v>219.636482116794</v>
       </c>
       <c r="N46" t="n">
-        <v>215.5539994168251</v>
+        <v>215.553999416825</v>
       </c>
       <c r="O46" t="n">
-        <v>23.72822449691867</v>
+        <v>190.2484999945765</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>8.19541422009803</v>
+        <v>8.195414220098041</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23266,19 +23266,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>133.6478624230681</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>147.8156668737692</v>
       </c>
       <c r="G11" t="n">
-        <v>407.1030088170024</v>
+        <v>242.5972652873611</v>
       </c>
       <c r="H11" t="n">
         <v>301.0958697879348</v>
       </c>
       <c r="I11" t="n">
-        <v>62.61993259844901</v>
+        <v>62.61993259844903</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,13 +23314,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.0409527385574</v>
       </c>
       <c r="V11" t="n">
-        <v>73.77591399196393</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>190.9144266787586</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
         <v>385.5580790162737</v>
@@ -23339,25 +23339,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C12" t="n">
-        <v>95.00522841267878</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E12" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>117.8275850600053</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>77.45102300362777</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>13.37438009968258</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23396,16 +23396,16 @@
         <v>207.8946411849309</v>
       </c>
       <c r="V12" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>177.5210747552478</v>
+        <v>70.47866959480055</v>
       </c>
     </row>
     <row r="13">
@@ -23430,10 +23430,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>165.7066254932732</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>146.2341261174519</v>
+        <v>77.01790031862059</v>
       </c>
       <c r="I13" t="n">
         <v>105.7539441251484</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>83.77347586928133</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.7152862203266</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>229.6664313308158</v>
       </c>
       <c r="U13" t="n">
-        <v>17.62740092705928</v>
+        <v>17.62740092705934</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>279.8196129649005</v>
+        <v>15.58727083658135</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -23497,22 +23497,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>124.3339192705459</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>153.3562393536899</v>
       </c>
       <c r="F14" t="n">
-        <v>147.8156668737693</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>407.1030088170024</v>
+        <v>142.1931816054496</v>
       </c>
       <c r="H14" t="n">
-        <v>67.76329397999913</v>
+        <v>301.0958697879348</v>
       </c>
       <c r="I14" t="n">
         <v>62.61993259844901</v>
@@ -23551,19 +23551,19 @@
         <v>212.825254881377</v>
       </c>
       <c r="U14" t="n">
-        <v>253.0409527385574</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>102.3792174698426</v>
       </c>
       <c r="X14" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>127.6159747770521</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -23573,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C15" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>73.10699336432957</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8275850600053</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>77.45102300362777</v>
       </c>
       <c r="I15" t="n">
-        <v>13.37438009968258</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,19 +23624,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>51.90235664730425</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>171.055761932852</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>207.8946411849309</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>187.4140068734885</v>
@@ -23667,13 +23667,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>165.7066254932732</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>146.2341261174519</v>
       </c>
       <c r="I16" t="n">
-        <v>105.7539441251484</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>185.7152862203266</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>229.6664313308158</v>
       </c>
       <c r="U16" t="n">
-        <v>17.6274009270594</v>
+        <v>17.62740092705934</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>279.8196129649008</v>
+        <v>15.58727083658135</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>88.73116146306114</v>
       </c>
       <c r="Y16" t="n">
         <v>220.8809405715231</v>
@@ -23737,22 +23737,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>116.6768902839462</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>133.6478624230681</v>
       </c>
       <c r="F17" t="n">
-        <v>147.8156668737691</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>407.1030088170024</v>
+        <v>142.1931816054496</v>
       </c>
       <c r="H17" t="n">
         <v>301.0958697879348</v>
       </c>
       <c r="I17" t="n">
-        <v>62.61993259844901</v>
+        <v>62.61993259844903</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>120.9114046084703</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.825254881377</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.0409527385574</v>
       </c>
       <c r="V17" t="n">
-        <v>162.31112320088</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
         <v>367.2890446813954</v>
@@ -23800,7 +23800,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>159.1932261806693</v>
       </c>
     </row>
     <row r="18">
@@ -23810,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>150.2783710965517</v>
+        <v>85.82904680664136</v>
       </c>
       <c r="C18" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>128.7880777047345</v>
@@ -23825,13 +23825,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G18" t="n">
-        <v>117.8275850600053</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>77.45102300362777</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>13.37438009968258</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,13 +23861,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>114.4192084551167</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>207.8946411849309</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23876,7 +23876,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>114.2266161241659</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y18" t="n">
         <v>177.5210747552478</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>168.5030667546707</v>
@@ -23901,10 +23901,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>165.7066254932732</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>146.2341261174519</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>83.77347586928133</v>
       </c>
       <c r="S19" t="n">
-        <v>157.148278019954</v>
+        <v>185.7152862203266</v>
       </c>
       <c r="T19" t="n">
         <v>229.6664313308158</v>
       </c>
       <c r="U19" t="n">
-        <v>17.62740092705928</v>
+        <v>282.5372281386121</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>15.58727083658141</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>70.11082606552748</v>
       </c>
     </row>
     <row r="20">
@@ -23977,10 +23977,10 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>133.6478624230681</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>147.8156668737693</v>
       </c>
       <c r="G20" t="n">
         <v>407.1030088170024</v>
@@ -23989,7 +23989,7 @@
         <v>301.0958697879348</v>
       </c>
       <c r="I20" t="n">
-        <v>30.24373719889483</v>
+        <v>62.61993259844901</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>120.9114046084703</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.0409527385574</v>
       </c>
       <c r="V20" t="n">
-        <v>73.77591399196393</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>102.3792174698426</v>
+        <v>202.7833011517543</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
@@ -24053,22 +24053,22 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D21" t="n">
-        <v>15.77919748206611</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>117.8275850600053</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>77.45102300362777</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>6.272720491445437</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24104,7 +24104,7 @@
         <v>171.055761932852</v>
       </c>
       <c r="U21" t="n">
-        <v>207.8946411849309</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24113,10 +24113,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24129,13 +24129,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>155.7526754391568</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>83.77347586928131</v>
+        <v>83.77347586928133</v>
       </c>
       <c r="S22" t="n">
-        <v>180.458866259038</v>
+        <v>185.7152862203266</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>229.6664313308158</v>
       </c>
       <c r="U22" t="n">
-        <v>17.62740092705928</v>
+        <v>29.60192103644835</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>15.5872708365813</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,25 +24208,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>124.3339192705458</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>116.676890283946</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>147.8156668737693</v>
       </c>
       <c r="G23" t="n">
         <v>407.1030088170024</v>
       </c>
       <c r="H23" t="n">
-        <v>301.0958697879348</v>
+        <v>36.18604257638208</v>
       </c>
       <c r="I23" t="n">
-        <v>62.61993259844901</v>
+        <v>30.24373719889515</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,10 +24259,10 @@
         <v>120.9114046084703</v>
       </c>
       <c r="T23" t="n">
-        <v>212.825254881377</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.0409527385574</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
@@ -24271,10 +24271,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>152.225503208338</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>127.615974777052</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -24284,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D24" t="n">
         <v>128.7880777047345</v>
@@ -24296,7 +24296,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>116.0858284474626</v>
       </c>
       <c r="G24" t="n">
         <v>117.8275850600053</v>
@@ -24338,13 +24338,13 @@
         <v>114.4192084551167</v>
       </c>
       <c r="T24" t="n">
-        <v>158.3584068147997</v>
+        <v>171.055761932852</v>
       </c>
       <c r="U24" t="n">
-        <v>207.8946411849309</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>84.49741336873423</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.7066254932732</v>
@@ -24417,19 +24417,19 @@
         <v>185.7152862203266</v>
       </c>
       <c r="T25" t="n">
-        <v>229.6664313308158</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>282.5372281386121</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>193.4165468853451</v>
       </c>
       <c r="W25" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>131.5799710427301</v>
+        <v>131.5799710427302</v>
       </c>
       <c r="C26" t="n">
-        <v>124.3339192705458</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>116.6768902839462</v>
       </c>
       <c r="E26" t="n">
-        <v>133.647862423068</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>407.1030088170024</v>
+        <v>294.681837617537</v>
       </c>
       <c r="H26" t="n">
         <v>301.0958697879348</v>
       </c>
       <c r="I26" t="n">
-        <v>62.61993259844901</v>
+        <v>62.61993259844903</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>120.9114046084703</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>212.825254881377</v>
@@ -24508,10 +24508,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>152.2255032083381</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>127.6159747770521</v>
       </c>
     </row>
     <row r="27">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>150.2783710965517</v>
+        <v>143.1767114883146</v>
       </c>
       <c r="C27" t="n">
         <v>149.1476881355087</v>
@@ -24530,7 +24530,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E27" t="n">
-        <v>48.52025513121603</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F27" t="n">
         <v>123.1874880556995</v>
@@ -24572,10 +24572,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>114.4192084551167</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>171.055761932852</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24587,10 +24587,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24615,7 +24615,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>165.7066254932732</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>146.2341261174519</v>
@@ -24651,22 +24651,22 @@
         <v>83.77347586928133</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>185.7152862203266</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>229.6664313308158</v>
       </c>
       <c r="U28" t="n">
-        <v>17.62740092705927</v>
+        <v>180.150694123075</v>
       </c>
       <c r="V28" t="n">
-        <v>180.4588662590379</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>15.5872708365813</v>
+        <v>15.58727083658141</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>131.5799710427301</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>124.3339192705459</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>331.7854788944825</v>
       </c>
       <c r="E29" t="n">
-        <v>165.2251138266852</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>147.8156668737691</v>
+        <v>147.8156668737693</v>
       </c>
       <c r="G29" t="n">
-        <v>142.1931816054495</v>
+        <v>142.1931816054496</v>
       </c>
       <c r="H29" t="n">
         <v>301.0958697879348</v>
       </c>
       <c r="I29" t="n">
-        <v>62.61993259844901</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>120.9114046084703</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>212.825254881377</v>
@@ -24758,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D30" t="n">
         <v>128.7880777047345</v>
@@ -24773,7 +24773,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G30" t="n">
-        <v>117.8275850600053</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>77.45102300362777</v>
@@ -24824,10 +24824,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>104.9103927503344</v>
+        <v>110.7259254517682</v>
       </c>
     </row>
     <row r="31">
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>119.5790415792999</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
         <v>165.7066254932732</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>146.2341261174519</v>
       </c>
       <c r="I31" t="n">
         <v>105.7539441251484</v>
@@ -24888,22 +24888,22 @@
         <v>83.77347586928133</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>185.7152862203266</v>
       </c>
       <c r="T31" t="n">
         <v>229.6664313308158</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5372281386121</v>
+        <v>197.80000713419</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>15.58727083658141</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>220.8809405715231</v>
@@ -24928,10 +24928,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>179.3929182773864</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>407.1030088170024</v>
+        <v>142.1931816054496</v>
       </c>
       <c r="H32" t="n">
         <v>301.0958697879348</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>120.9114046084703</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>212.825254881377</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.0409527385574</v>
+        <v>88.53520920891631</v>
       </c>
       <c r="V32" t="n">
-        <v>73.77591399196405</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>102.3792174698427</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
         <v>385.5580790162737</v>
@@ -24998,22 +24998,22 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>128.7880777047345</v>
+        <v>6.127738716822108</v>
       </c>
       <c r="E33" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F33" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>117.8275850600053</v>
       </c>
       <c r="H33" t="n">
-        <v>77.45102300362777</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>13.37438009968258</v>
@@ -25046,16 +25046,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>70.18191306994288</v>
+        <v>114.4192084551167</v>
       </c>
       <c r="T33" t="n">
         <v>171.055761932852</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>207.8946411849309</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.7066254932732</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>146.2341261174519</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>229.6664313308158</v>
       </c>
       <c r="U34" t="n">
         <v>282.5372281386121</v>
@@ -25140,10 +25140,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>18.93205469090938</v>
       </c>
       <c r="Y34" t="n">
-        <v>115.8122813782875</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25162,19 +25162,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>133.647862423068</v>
       </c>
       <c r="F35" t="n">
-        <v>147.8156668737691</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>407.1030088170024</v>
+        <v>142.1931816054495</v>
       </c>
       <c r="H35" t="n">
-        <v>301.0958697879348</v>
+        <v>188.6746985884693</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>62.61993259844901</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>120.9114046084703</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>30.24373719889491</v>
+        <v>212.825254881377</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.0409527385574</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
@@ -25219,10 +25219,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>120.6482518047209</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>127.615974777052</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C36" t="n">
         <v>149.1476881355087</v>
@@ -25253,7 +25253,7 @@
         <v>77.45102300362777</v>
       </c>
       <c r="I36" t="n">
-        <v>13.37438009968258</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25286,10 +25286,10 @@
         <v>114.4192084551167</v>
       </c>
       <c r="T36" t="n">
-        <v>171.055761932852</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>143.1767114883141</v>
+        <v>177.3284824242971</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>165.7066254932732</v>
       </c>
       <c r="H37" t="n">
-        <v>140.9777061561632</v>
+        <v>146.2341261174519</v>
       </c>
       <c r="I37" t="n">
         <v>105.7539441251484</v>
@@ -25362,10 +25362,10 @@
         <v>83.77347586928133</v>
       </c>
       <c r="S37" t="n">
-        <v>185.7152862203266</v>
+        <v>182.5319539230689</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>229.6664313308158</v>
       </c>
       <c r="U37" t="n">
         <v>17.62740092705928</v>
@@ -25377,7 +25377,7 @@
         <v>15.5872708365813</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>131.5799710427301</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>124.3339192705458</v>
+        <v>124.3339192705459</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>133.6478624230681</v>
       </c>
       <c r="F38" t="n">
         <v>412.725494085322</v>
@@ -25411,7 +25411,7 @@
         <v>301.0958697879348</v>
       </c>
       <c r="I38" t="n">
-        <v>62.61993259844903</v>
+        <v>42.11261167189031</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>120.9114046084703</v>
       </c>
       <c r="T38" t="n">
-        <v>100.4040836819115</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>253.0409527385574</v>
@@ -25459,7 +25459,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>127.615974777052</v>
+        <v>127.6159747770521</v>
       </c>
     </row>
     <row r="39">
@@ -25478,7 +25478,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E39" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>123.1874880556995</v>
@@ -25520,10 +25520,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>114.4192084551167</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>171.055761932852</v>
+        <v>89.75667452554789</v>
       </c>
       <c r="U39" t="n">
         <v>207.8946411849309</v>
@@ -25532,10 +25532,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>84.42975843889215</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>154.0032240193895</v>
@@ -25566,7 +25566,7 @@
         <v>165.7066254932732</v>
       </c>
       <c r="H40" t="n">
-        <v>146.2341261174519</v>
+        <v>30.70408269227713</v>
       </c>
       <c r="I40" t="n">
         <v>105.7539441251484</v>
@@ -25599,7 +25599,7 @@
         <v>83.77347586928133</v>
       </c>
       <c r="S40" t="n">
-        <v>185.7152862203266</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>229.6664313308158</v>
@@ -25608,13 +25608,13 @@
         <v>282.5372281386121</v>
       </c>
       <c r="V40" t="n">
-        <v>136.1437195671007</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>15.5872708365813</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>163.1572224463472</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
@@ -25642,13 +25642,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>407.1030088170024</v>
+        <v>142.1931816054495</v>
       </c>
       <c r="H41" t="n">
         <v>301.0958697879348</v>
       </c>
       <c r="I41" t="n">
-        <v>62.61993259844903</v>
+        <v>42.11261167189021</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>120.9114046084703</v>
       </c>
       <c r="T41" t="n">
-        <v>212.825254881377</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>253.0409527385574</v>
@@ -25693,7 +25693,7 @@
         <v>102.3792174698426</v>
       </c>
       <c r="X41" t="n">
-        <v>120.6482518047209</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -25706,19 +25706,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D42" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>117.8275850600053</v>
@@ -25757,25 +25757,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>100.8522360244834</v>
+        <v>114.4192084551167</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>207.8946411849309</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>45.26474895620098</v>
       </c>
       <c r="Y42" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>39.46907832001423</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.7066254932732</v>
       </c>
       <c r="H43" t="n">
         <v>146.2341261174519</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>83.77347586928133</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>185.7152862203266</v>
       </c>
       <c r="T43" t="n">
-        <v>229.6664313308158</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>282.5372281386121</v>
@@ -25848,13 +25848,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>210.5940932060946</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25873,10 +25873,10 @@
         <v>116.6768902839461</v>
       </c>
       <c r="E44" t="n">
-        <v>165.2251138266852</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>147.8156668737691</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
         <v>407.1030088170024</v>
@@ -25921,19 +25921,19 @@
         <v>212.825254881377</v>
       </c>
       <c r="U44" t="n">
-        <v>253.0409527385574</v>
+        <v>19.70837693062165</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>73.77591399196399</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>120.6482518047209</v>
       </c>
       <c r="Y44" t="n">
-        <v>127.615974777052</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -25946,10 +25946,10 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
         <v>135.0820259802211</v>
@@ -25994,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>21.44891601942923</v>
+        <v>114.4192084551167</v>
       </c>
       <c r="T45" t="n">
         <v>171.055761932852</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>207.8946411849309</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>84.42975843889226</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>122.9540818079439</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.7066254932732</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>146.2341261174519</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>105.7539441251484</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>83.77347586928133</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>229.6664313308158</v>
+        <v>98.90497755187349</v>
       </c>
       <c r="U46" t="n">
         <v>282.5372281386121</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>15.58727083658135</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>365538.5417061258</v>
+        <v>365538.5417061257</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>365538.5417061258</v>
+        <v>365538.5417061257</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>365538.5417061258</v>
+        <v>365538.5417061257</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>365538.5417061257</v>
+        <v>365538.5417061256</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>365538.5417061258</v>
+        <v>365538.5417061257</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>365538.5417061257</v>
+        <v>365538.5417061258</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>365538.5417061258</v>
+        <v>365538.5417061257</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>485772.8004488131</v>
+        <v>485772.8004488132</v>
       </c>
       <c r="C2" t="n">
         <v>485772.8004488132</v>
       </c>
       <c r="D2" t="n">
-        <v>485772.8004488133</v>
+        <v>485772.8004488131</v>
       </c>
       <c r="E2" t="n">
+        <v>217424.356812666</v>
+      </c>
+      <c r="F2" t="n">
         <v>217424.3568126661</v>
-      </c>
-      <c r="F2" t="n">
-        <v>217424.3568126659</v>
       </c>
       <c r="G2" t="n">
         <v>217424.3568126659</v>
       </c>
       <c r="H2" t="n">
-        <v>217424.356812666</v>
+        <v>217424.3568126659</v>
       </c>
       <c r="I2" t="n">
-        <v>217424.3568126661</v>
+        <v>217424.3568126659</v>
       </c>
       <c r="J2" t="n">
-        <v>217424.3568126661</v>
+        <v>217424.3568126659</v>
       </c>
       <c r="K2" t="n">
-        <v>217424.3568126661</v>
+        <v>217424.3568126659</v>
       </c>
       <c r="L2" t="n">
         <v>217424.3568126659</v>
       </c>
       <c r="M2" t="n">
-        <v>217424.3568126661</v>
+        <v>217424.356812666</v>
       </c>
       <c r="N2" t="n">
-        <v>217424.356812666</v>
+        <v>217424.3568126659</v>
       </c>
       <c r="O2" t="n">
-        <v>217424.356812666</v>
+        <v>217424.3568126659</v>
       </c>
       <c r="P2" t="n">
-        <v>217424.356812666</v>
+        <v>217424.3568126659</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>297409.63868241</v>
+        <v>297409.6386824099</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>66016.58858042781</v>
+        <v>66016.58858042776</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>340020.7116936896</v>
       </c>
       <c r="E4" t="n">
-        <v>19499.83855511016</v>
+        <v>19499.83855511015</v>
       </c>
       <c r="F4" t="n">
-        <v>19499.83855511013</v>
+        <v>19499.83855511015</v>
       </c>
       <c r="G4" t="n">
         <v>19499.83855511015</v>
       </c>
       <c r="H4" t="n">
-        <v>19499.83855511015</v>
+        <v>19499.83855511014</v>
       </c>
       <c r="I4" t="n">
-        <v>19499.83855511016</v>
+        <v>19499.83855511013</v>
       </c>
       <c r="J4" t="n">
         <v>19499.83855511015</v>
       </c>
       <c r="K4" t="n">
-        <v>19499.83855511016</v>
+        <v>19499.83855511013</v>
       </c>
       <c r="L4" t="n">
         <v>19499.83855511013</v>
       </c>
       <c r="M4" t="n">
-        <v>19499.83855511016</v>
+        <v>19499.83855511015</v>
       </c>
       <c r="N4" t="n">
-        <v>19499.83855511016</v>
+        <v>19499.83855511013</v>
       </c>
       <c r="O4" t="n">
-        <v>19499.83855511016</v>
+        <v>19499.83855511015</v>
       </c>
       <c r="P4" t="n">
-        <v>19499.83855511016</v>
+        <v>19499.83855511015</v>
       </c>
     </row>
     <row r="5">
@@ -26478,25 +26478,25 @@
         <v>38159.46666611726</v>
       </c>
       <c r="E5" t="n">
-        <v>26562.22556021674</v>
+        <v>26562.22556021673</v>
       </c>
       <c r="F5" t="n">
         <v>26562.22556021673</v>
       </c>
       <c r="G5" t="n">
-        <v>26562.22556021674</v>
+        <v>26562.22556021673</v>
       </c>
       <c r="H5" t="n">
-        <v>26562.22556021674</v>
+        <v>26562.22556021673</v>
       </c>
       <c r="I5" t="n">
-        <v>26562.22556021674</v>
+        <v>26562.22556021672</v>
       </c>
       <c r="J5" t="n">
-        <v>26562.22556021674</v>
+        <v>26562.22556021673</v>
       </c>
       <c r="K5" t="n">
-        <v>26562.22556021674</v>
+        <v>26562.22556021673</v>
       </c>
       <c r="L5" t="n">
         <v>26562.22556021673</v>
@@ -26505,13 +26505,13 @@
         <v>26562.22556021674</v>
       </c>
       <c r="N5" t="n">
-        <v>26562.22556021674</v>
+        <v>26562.22556021673</v>
       </c>
       <c r="O5" t="n">
         <v>26562.22556021674</v>
       </c>
       <c r="P5" t="n">
-        <v>26562.22556021674</v>
+        <v>26562.22556021673</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-92726.90239435411</v>
+        <v>-92731.06565510671</v>
       </c>
       <c r="C6" t="n">
-        <v>107592.6220890063</v>
+        <v>107588.4588282536</v>
       </c>
       <c r="D6" t="n">
-        <v>107592.6220890064</v>
+        <v>107588.4588282535</v>
       </c>
       <c r="E6" t="n">
-        <v>-126047.3459850708</v>
+        <v>-127045.392370402</v>
       </c>
       <c r="F6" t="n">
-        <v>171362.2926973391</v>
+        <v>170364.2463120081</v>
       </c>
       <c r="G6" t="n">
-        <v>171362.292697339</v>
+        <v>170364.2463120079</v>
       </c>
       <c r="H6" t="n">
-        <v>171362.2926973391</v>
+        <v>170364.2463120079</v>
       </c>
       <c r="I6" t="n">
-        <v>171362.2926973392</v>
+        <v>170364.2463120079</v>
       </c>
       <c r="J6" t="n">
-        <v>171362.2926973392</v>
+        <v>170364.2463120079</v>
       </c>
       <c r="K6" t="n">
-        <v>171362.2926973392</v>
+        <v>170364.246312008</v>
       </c>
       <c r="L6" t="n">
-        <v>171362.2926973391</v>
+        <v>170364.246312008</v>
       </c>
       <c r="M6" t="n">
-        <v>105345.7041169114</v>
+        <v>104347.6577315802</v>
       </c>
       <c r="N6" t="n">
-        <v>171362.2926973391</v>
+        <v>170364.2463120079</v>
       </c>
       <c r="O6" t="n">
-        <v>171362.2926973391</v>
+        <v>170364.2463120079</v>
       </c>
       <c r="P6" t="n">
-        <v>171362.2926973391</v>
+        <v>170364.2463120079</v>
       </c>
     </row>
   </sheetData>
@@ -26752,10 +26752,10 @@
         <v>479.6196360437762</v>
       </c>
       <c r="G3" t="n">
-        <v>479.6196360437763</v>
+        <v>479.6196360437762</v>
       </c>
       <c r="H3" t="n">
-        <v>479.6196360437763</v>
+        <v>479.6196360437762</v>
       </c>
       <c r="I3" t="n">
         <v>479.6196360437762</v>
@@ -26798,25 +26798,25 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>264.9098272115529</v>
+        <v>264.9098272115528</v>
       </c>
       <c r="F4" t="n">
+        <v>264.9098272115528</v>
+      </c>
+      <c r="G4" t="n">
         <v>264.9098272115527</v>
       </c>
-      <c r="G4" t="n">
-        <v>264.9098272115529</v>
-      </c>
       <c r="H4" t="n">
-        <v>264.9098272115529</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="I4" t="n">
-        <v>264.9098272115529</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="J4" t="n">
-        <v>264.9098272115529</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="K4" t="n">
-        <v>264.9098272115529</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="L4" t="n">
         <v>264.9098272115527</v>
@@ -26825,13 +26825,13 @@
         <v>264.9098272115529</v>
       </c>
       <c r="N4" t="n">
-        <v>264.9098272115529</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="O4" t="n">
         <v>264.9098272115529</v>
       </c>
       <c r="P4" t="n">
-        <v>264.9098272115529</v>
+        <v>264.9098272115528</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>271.7358440200485</v>
+        <v>271.7358440200484</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>264.9098272115528</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>264.9098272115528</v>
+        <v>264.9098272115526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>264.9098272115528</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27879,7 +27879,7 @@
         <v>46.74967917541601</v>
       </c>
       <c r="K8" t="n">
-        <v>36.75248193446048</v>
+        <v>36.75248193446046</v>
       </c>
       <c r="L8" t="n">
         <v>21.36627421377045</v>
@@ -27894,7 +27894,7 @@
         <v>8.75547455640654</v>
       </c>
       <c r="P8" t="n">
-        <v>30.1247672499621</v>
+        <v>30.12476724996209</v>
       </c>
       <c r="Q8" t="n">
         <v>54.25101662582001</v>
@@ -27976,7 +27976,7 @@
         <v>1.698038997342408</v>
       </c>
       <c r="Q9" t="n">
-        <v>33.91032407045576</v>
+        <v>33.91032407045577</v>
       </c>
       <c r="R9" t="n">
         <v>66.92938550216252</v>
@@ -28052,7 +28052,7 @@
         <v>37.0102385447647</v>
       </c>
       <c r="P10" t="n">
-        <v>44.18408838467262</v>
+        <v>44.18408838467263</v>
       </c>
       <c r="Q10" t="n">
         <v>67.08779846355691</v>
@@ -31518,7 +31518,7 @@
         <v>0.8357137367788041</v>
       </c>
       <c r="H8" t="n">
-        <v>8.558753306785929</v>
+        <v>8.558753306785931</v>
       </c>
       <c r="I8" t="n">
         <v>32.21885383716488</v>
@@ -31624,13 +31624,13 @@
         <v>85.38532582197224</v>
       </c>
       <c r="Q9" t="n">
-        <v>57.07782908545823</v>
+        <v>57.07782908545822</v>
       </c>
       <c r="R9" t="n">
         <v>27.76229207441406</v>
       </c>
       <c r="S9" t="n">
-        <v>8.305545841702699</v>
+        <v>8.305545841702701</v>
       </c>
       <c r="T9" t="n">
         <v>1.802313253488733</v>
@@ -31685,7 +31685,7 @@
         <v>26.50347951751689</v>
       </c>
       <c r="K10" t="n">
-        <v>43.55335839447932</v>
+        <v>43.55335839447933</v>
       </c>
       <c r="L10" t="n">
         <v>55.73330384845972</v>
@@ -31700,7 +31700,7 @@
         <v>52.9865114489331</v>
       </c>
       <c r="P10" t="n">
-        <v>45.33911424727332</v>
+        <v>45.33911424727331</v>
       </c>
       <c r="Q10" t="n">
         <v>31.39045259558288</v>
@@ -31709,7 +31709,7 @@
         <v>16.85562680900585</v>
       </c>
       <c r="S10" t="n">
-        <v>6.533003759171898</v>
+        <v>6.533003759171899</v>
       </c>
       <c r="T10" t="n">
         <v>1.601727577887737</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.928119139874476</v>
+        <v>1.928119139874475</v>
       </c>
       <c r="H11" t="n">
         <v>19.74635014123948</v>
       </c>
       <c r="I11" t="n">
-        <v>74.3338131400108</v>
+        <v>74.33381314001079</v>
       </c>
       <c r="J11" t="n">
         <v>163.6467018479214</v>
@@ -31767,13 +31767,13 @@
         <v>245.263985038808</v>
       </c>
       <c r="L11" t="n">
-        <v>304.2716611657416</v>
+        <v>304.2716611657415</v>
       </c>
       <c r="M11" t="n">
         <v>338.5608499194843</v>
       </c>
       <c r="N11" t="n">
-        <v>344.0391184256527</v>
+        <v>344.0391184256526</v>
       </c>
       <c r="O11" t="n">
         <v>324.8663837285258</v>
@@ -31788,10 +31788,10 @@
         <v>121.1172139201401</v>
       </c>
       <c r="S11" t="n">
-        <v>43.93701489988966</v>
+        <v>43.93701489988965</v>
       </c>
       <c r="T11" t="n">
-        <v>8.440341534800522</v>
+        <v>8.44034153480052</v>
       </c>
       <c r="U11" t="n">
         <v>0.154249531189958</v>
@@ -31834,22 +31834,22 @@
         <v>1.031634688848877</v>
       </c>
       <c r="H12" t="n">
-        <v>9.963419231777316</v>
+        <v>9.963419231777314</v>
       </c>
       <c r="I12" t="n">
-        <v>35.51900134852495</v>
+        <v>35.51900134852494</v>
       </c>
       <c r="J12" t="n">
-        <v>97.46685452848099</v>
+        <v>97.46685452848098</v>
       </c>
       <c r="K12" t="n">
-        <v>166.5863786813558</v>
+        <v>166.5863786813557</v>
       </c>
       <c r="L12" t="n">
-        <v>223.9959441730863</v>
+        <v>223.9959441730862</v>
       </c>
       <c r="M12" t="n">
-        <v>261.392701643858</v>
+        <v>261.3927016438579</v>
       </c>
       <c r="N12" t="n">
         <v>268.3109886581121</v>
@@ -31861,10 +31861,10 @@
         <v>196.9969784346597</v>
       </c>
       <c r="Q12" t="n">
-        <v>131.6872630888497</v>
+        <v>131.6872630888496</v>
       </c>
       <c r="R12" t="n">
-        <v>64.05184497958207</v>
+        <v>64.05184497958206</v>
       </c>
       <c r="S12" t="n">
         <v>19.16216187401312</v>
@@ -31873,7 +31873,7 @@
         <v>4.158211750228586</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06787070321374195</v>
+        <v>0.06787070321374193</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,25 +31910,25 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8648878682756619</v>
+        <v>0.8648878682756618</v>
       </c>
       <c r="H13" t="n">
-        <v>7.689639410669073</v>
+        <v>7.689639410669072</v>
       </c>
       <c r="I13" t="n">
         <v>26.00953698414446</v>
       </c>
       <c r="J13" t="n">
-        <v>61.1475722870893</v>
+        <v>61.14757228708929</v>
       </c>
       <c r="K13" t="n">
-        <v>100.4842450596633</v>
+        <v>100.4842450596632</v>
       </c>
       <c r="L13" t="n">
         <v>128.585238161638</v>
       </c>
       <c r="M13" t="n">
-        <v>135.5751046607022</v>
+        <v>135.5751046607021</v>
       </c>
       <c r="N13" t="n">
         <v>132.3514316971293</v>
@@ -31943,16 +31943,16 @@
         <v>72.4225650426102</v>
       </c>
       <c r="R13" t="n">
-        <v>38.88850360446748</v>
+        <v>38.88850360446747</v>
       </c>
       <c r="S13" t="n">
-        <v>15.07263675894949</v>
+        <v>15.07263675894948</v>
       </c>
       <c r="T13" t="n">
-        <v>3.695429982632373</v>
+        <v>3.695429982632372</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04717570190594525</v>
+        <v>0.04717570190594524</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.928119139874476</v>
+        <v>1.928119139874475</v>
       </c>
       <c r="H17" t="n">
         <v>19.74635014123948</v>
       </c>
       <c r="I17" t="n">
-        <v>74.3338131400108</v>
+        <v>74.33381314001079</v>
       </c>
       <c r="J17" t="n">
-        <v>163.6467018479215</v>
+        <v>163.6467018479214</v>
       </c>
       <c r="K17" t="n">
-        <v>245.2639850388081</v>
+        <v>245.263985038808</v>
       </c>
       <c r="L17" t="n">
-        <v>304.2716611657416</v>
+        <v>304.2716611657415</v>
       </c>
       <c r="M17" t="n">
         <v>338.5608499194843</v>
       </c>
       <c r="N17" t="n">
-        <v>344.0391184256527</v>
+        <v>344.0391184256526</v>
       </c>
       <c r="O17" t="n">
-        <v>324.8663837285259</v>
+        <v>324.8663837285258</v>
       </c>
       <c r="P17" t="n">
-        <v>277.2659424628747</v>
+        <v>277.2659424628746</v>
       </c>
       <c r="Q17" t="n">
-        <v>208.21517576612</v>
+        <v>208.2151757661199</v>
       </c>
       <c r="R17" t="n">
-        <v>121.1172139201402</v>
+        <v>121.1172139201401</v>
       </c>
       <c r="S17" t="n">
-        <v>43.93701489988967</v>
+        <v>43.93701489988965</v>
       </c>
       <c r="T17" t="n">
-        <v>8.440341534800522</v>
+        <v>8.44034153480052</v>
       </c>
       <c r="U17" t="n">
         <v>0.154249531189958</v>
@@ -32308,46 +32308,46 @@
         <v>1.031634688848877</v>
       </c>
       <c r="H18" t="n">
-        <v>9.963419231777316</v>
+        <v>9.963419231777314</v>
       </c>
       <c r="I18" t="n">
-        <v>35.51900134852495</v>
+        <v>35.51900134852494</v>
       </c>
       <c r="J18" t="n">
-        <v>97.46685452848101</v>
+        <v>97.46685452848098</v>
       </c>
       <c r="K18" t="n">
-        <v>166.5863786813558</v>
+        <v>166.5863786813557</v>
       </c>
       <c r="L18" t="n">
-        <v>223.9959441730863</v>
+        <v>223.9959441730862</v>
       </c>
       <c r="M18" t="n">
-        <v>261.392701643858</v>
+        <v>261.3927016438579</v>
       </c>
       <c r="N18" t="n">
-        <v>268.3109886581122</v>
+        <v>268.3109886581121</v>
       </c>
       <c r="O18" t="n">
-        <v>245.4521358157239</v>
+        <v>245.4521358157238</v>
       </c>
       <c r="P18" t="n">
-        <v>196.9969784346598</v>
+        <v>196.9969784346597</v>
       </c>
       <c r="Q18" t="n">
-        <v>131.6872630888497</v>
+        <v>131.6872630888496</v>
       </c>
       <c r="R18" t="n">
-        <v>64.05184497958207</v>
+        <v>64.05184497958206</v>
       </c>
       <c r="S18" t="n">
-        <v>19.16216187401313</v>
+        <v>19.16216187401312</v>
       </c>
       <c r="T18" t="n">
-        <v>4.158211750228587</v>
+        <v>4.158211750228586</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06787070321374196</v>
+        <v>0.06787070321374193</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,28 +32384,28 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.864887868275662</v>
+        <v>0.8648878682756618</v>
       </c>
       <c r="H19" t="n">
-        <v>7.689639410669074</v>
+        <v>7.689639410669072</v>
       </c>
       <c r="I19" t="n">
         <v>26.00953698414446</v>
       </c>
       <c r="J19" t="n">
-        <v>61.1475722870893</v>
+        <v>61.14757228708929</v>
       </c>
       <c r="K19" t="n">
-        <v>100.4842450596633</v>
+        <v>100.4842450596632</v>
       </c>
       <c r="L19" t="n">
         <v>128.585238161638</v>
       </c>
       <c r="M19" t="n">
-        <v>135.5751046607022</v>
+        <v>135.5751046607021</v>
       </c>
       <c r="N19" t="n">
-        <v>132.3514316971294</v>
+        <v>132.3514316971293</v>
       </c>
       <c r="O19" t="n">
         <v>122.2479688722727</v>
@@ -32414,19 +32414,19 @@
         <v>104.6042563594491</v>
       </c>
       <c r="Q19" t="n">
-        <v>72.42256504261022</v>
+        <v>72.4225650426102</v>
       </c>
       <c r="R19" t="n">
-        <v>38.88850360446749</v>
+        <v>38.88850360446747</v>
       </c>
       <c r="S19" t="n">
-        <v>15.07263675894949</v>
+        <v>15.07263675894948</v>
       </c>
       <c r="T19" t="n">
-        <v>3.695429982632373</v>
+        <v>3.695429982632372</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04717570190594526</v>
+        <v>0.04717570190594524</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32472,10 +32472,10 @@
         <v>74.3338131400108</v>
       </c>
       <c r="J20" t="n">
-        <v>163.6467018479215</v>
+        <v>163.6467018479214</v>
       </c>
       <c r="K20" t="n">
-        <v>245.2639850388081</v>
+        <v>245.263985038808</v>
       </c>
       <c r="L20" t="n">
         <v>304.2716611657416</v>
@@ -32487,19 +32487,19 @@
         <v>344.0391184256527</v>
       </c>
       <c r="O20" t="n">
-        <v>324.8663837285259</v>
+        <v>324.8663837285258</v>
       </c>
       <c r="P20" t="n">
-        <v>277.2659424628747</v>
+        <v>277.2659424628746</v>
       </c>
       <c r="Q20" t="n">
-        <v>208.21517576612</v>
+        <v>208.2151757661199</v>
       </c>
       <c r="R20" t="n">
-        <v>121.1172139201402</v>
+        <v>121.1172139201401</v>
       </c>
       <c r="S20" t="n">
-        <v>43.93701489988967</v>
+        <v>43.93701489988966</v>
       </c>
       <c r="T20" t="n">
         <v>8.440341534800522</v>
@@ -32551,7 +32551,7 @@
         <v>35.51900134852495</v>
       </c>
       <c r="J21" t="n">
-        <v>97.46685452848101</v>
+        <v>97.46685452848099</v>
       </c>
       <c r="K21" t="n">
         <v>166.5863786813558</v>
@@ -32563,13 +32563,13 @@
         <v>261.392701643858</v>
       </c>
       <c r="N21" t="n">
-        <v>268.3109886581122</v>
+        <v>268.3109886581121</v>
       </c>
       <c r="O21" t="n">
-        <v>245.4521358157239</v>
+        <v>245.4521358157238</v>
       </c>
       <c r="P21" t="n">
-        <v>196.9969784346598</v>
+        <v>196.9969784346597</v>
       </c>
       <c r="Q21" t="n">
         <v>131.6872630888497</v>
@@ -32578,13 +32578,13 @@
         <v>64.05184497958207</v>
       </c>
       <c r="S21" t="n">
-        <v>19.16216187401313</v>
+        <v>19.16216187401312</v>
       </c>
       <c r="T21" t="n">
-        <v>4.158211750228587</v>
+        <v>4.158211750228586</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06787070321374196</v>
+        <v>0.06787070321374195</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.864887868275662</v>
+        <v>0.8648878682756619</v>
       </c>
       <c r="H22" t="n">
-        <v>7.689639410669074</v>
+        <v>7.689639410669073</v>
       </c>
       <c r="I22" t="n">
         <v>26.00953698414446</v>
@@ -32642,7 +32642,7 @@
         <v>135.5751046607022</v>
       </c>
       <c r="N22" t="n">
-        <v>132.3514316971294</v>
+        <v>132.3514316971293</v>
       </c>
       <c r="O22" t="n">
         <v>122.2479688722727</v>
@@ -32651,10 +32651,10 @@
         <v>104.6042563594491</v>
       </c>
       <c r="Q22" t="n">
-        <v>72.42256504261022</v>
+        <v>72.4225650426102</v>
       </c>
       <c r="R22" t="n">
-        <v>38.88850360446749</v>
+        <v>38.88850360446748</v>
       </c>
       <c r="S22" t="n">
         <v>15.07263675894949</v>
@@ -32663,7 +32663,7 @@
         <v>3.695429982632373</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04717570190594526</v>
+        <v>0.04717570190594525</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.928119139874476</v>
+        <v>1.928119139874475</v>
       </c>
       <c r="H26" t="n">
         <v>19.74635014123948</v>
       </c>
       <c r="I26" t="n">
-        <v>74.3338131400108</v>
+        <v>74.33381314001079</v>
       </c>
       <c r="J26" t="n">
         <v>163.6467018479214</v>
@@ -32952,13 +32952,13 @@
         <v>245.263985038808</v>
       </c>
       <c r="L26" t="n">
-        <v>304.2716611657416</v>
+        <v>304.2716611657415</v>
       </c>
       <c r="M26" t="n">
         <v>338.5608499194843</v>
       </c>
       <c r="N26" t="n">
-        <v>344.0391184256527</v>
+        <v>344.0391184256526</v>
       </c>
       <c r="O26" t="n">
         <v>324.8663837285258</v>
@@ -32973,10 +32973,10 @@
         <v>121.1172139201401</v>
       </c>
       <c r="S26" t="n">
-        <v>43.93701489988966</v>
+        <v>43.93701489988965</v>
       </c>
       <c r="T26" t="n">
-        <v>8.440341534800522</v>
+        <v>8.44034153480052</v>
       </c>
       <c r="U26" t="n">
         <v>0.154249531189958</v>
@@ -33019,22 +33019,22 @@
         <v>1.031634688848877</v>
       </c>
       <c r="H27" t="n">
-        <v>9.963419231777316</v>
+        <v>9.963419231777314</v>
       </c>
       <c r="I27" t="n">
-        <v>35.51900134852495</v>
+        <v>35.51900134852494</v>
       </c>
       <c r="J27" t="n">
-        <v>97.46685452848099</v>
+        <v>97.46685452848098</v>
       </c>
       <c r="K27" t="n">
-        <v>166.5863786813558</v>
+        <v>166.5863786813557</v>
       </c>
       <c r="L27" t="n">
-        <v>223.9959441730863</v>
+        <v>223.9959441730862</v>
       </c>
       <c r="M27" t="n">
-        <v>261.392701643858</v>
+        <v>261.3927016438579</v>
       </c>
       <c r="N27" t="n">
         <v>268.3109886581121</v>
@@ -33046,10 +33046,10 @@
         <v>196.9969784346597</v>
       </c>
       <c r="Q27" t="n">
-        <v>131.6872630888497</v>
+        <v>131.6872630888496</v>
       </c>
       <c r="R27" t="n">
-        <v>64.05184497958207</v>
+        <v>64.05184497958206</v>
       </c>
       <c r="S27" t="n">
         <v>19.16216187401312</v>
@@ -33058,7 +33058,7 @@
         <v>4.158211750228586</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06787070321374195</v>
+        <v>0.06787070321374193</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,25 +33095,25 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8648878682756619</v>
+        <v>0.8648878682756618</v>
       </c>
       <c r="H28" t="n">
-        <v>7.689639410669073</v>
+        <v>7.689639410669072</v>
       </c>
       <c r="I28" t="n">
         <v>26.00953698414446</v>
       </c>
       <c r="J28" t="n">
-        <v>61.1475722870893</v>
+        <v>61.14757228708929</v>
       </c>
       <c r="K28" t="n">
-        <v>100.4842450596633</v>
+        <v>100.4842450596632</v>
       </c>
       <c r="L28" t="n">
         <v>128.585238161638</v>
       </c>
       <c r="M28" t="n">
-        <v>135.5751046607022</v>
+        <v>135.5751046607021</v>
       </c>
       <c r="N28" t="n">
         <v>132.3514316971293</v>
@@ -33128,16 +33128,16 @@
         <v>72.4225650426102</v>
       </c>
       <c r="R28" t="n">
-        <v>38.88850360446748</v>
+        <v>38.88850360446747</v>
       </c>
       <c r="S28" t="n">
-        <v>15.07263675894949</v>
+        <v>15.07263675894948</v>
       </c>
       <c r="T28" t="n">
-        <v>3.695429982632373</v>
+        <v>3.695429982632372</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04717570190594525</v>
+        <v>0.04717570190594524</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.928119139874475</v>
+        <v>1.928119139874476</v>
       </c>
       <c r="H38" t="n">
         <v>19.74635014123948</v>
       </c>
       <c r="I38" t="n">
-        <v>74.33381314001079</v>
+        <v>74.3338131400108</v>
       </c>
       <c r="J38" t="n">
         <v>163.6467018479214</v>
@@ -33900,13 +33900,13 @@
         <v>245.263985038808</v>
       </c>
       <c r="L38" t="n">
-        <v>304.2716611657415</v>
+        <v>304.2716611657416</v>
       </c>
       <c r="M38" t="n">
         <v>338.5608499194843</v>
       </c>
       <c r="N38" t="n">
-        <v>344.0391184256526</v>
+        <v>344.0391184256527</v>
       </c>
       <c r="O38" t="n">
         <v>324.8663837285258</v>
@@ -33921,10 +33921,10 @@
         <v>121.1172139201401</v>
       </c>
       <c r="S38" t="n">
-        <v>43.93701489988965</v>
+        <v>43.93701489988966</v>
       </c>
       <c r="T38" t="n">
-        <v>8.44034153480052</v>
+        <v>8.440341534800522</v>
       </c>
       <c r="U38" t="n">
         <v>0.154249531189958</v>
@@ -33967,22 +33967,22 @@
         <v>1.031634688848877</v>
       </c>
       <c r="H39" t="n">
-        <v>9.963419231777314</v>
+        <v>9.963419231777316</v>
       </c>
       <c r="I39" t="n">
-        <v>35.51900134852494</v>
+        <v>35.51900134852495</v>
       </c>
       <c r="J39" t="n">
-        <v>97.46685452848098</v>
+        <v>97.46685452848099</v>
       </c>
       <c r="K39" t="n">
-        <v>166.5863786813557</v>
+        <v>166.5863786813558</v>
       </c>
       <c r="L39" t="n">
-        <v>223.9959441730862</v>
+        <v>223.9959441730863</v>
       </c>
       <c r="M39" t="n">
-        <v>261.3927016438579</v>
+        <v>261.392701643858</v>
       </c>
       <c r="N39" t="n">
         <v>268.3109886581121</v>
@@ -33994,10 +33994,10 @@
         <v>196.9969784346597</v>
       </c>
       <c r="Q39" t="n">
-        <v>131.6872630888496</v>
+        <v>131.6872630888497</v>
       </c>
       <c r="R39" t="n">
-        <v>64.05184497958206</v>
+        <v>64.05184497958207</v>
       </c>
       <c r="S39" t="n">
         <v>19.16216187401312</v>
@@ -34006,7 +34006,7 @@
         <v>4.158211750228586</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06787070321374193</v>
+        <v>0.06787070321374195</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,25 +34043,25 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8648878682756618</v>
+        <v>0.8648878682756619</v>
       </c>
       <c r="H40" t="n">
-        <v>7.689639410669072</v>
+        <v>7.689639410669073</v>
       </c>
       <c r="I40" t="n">
         <v>26.00953698414446</v>
       </c>
       <c r="J40" t="n">
-        <v>61.14757228708929</v>
+        <v>61.1475722870893</v>
       </c>
       <c r="K40" t="n">
-        <v>100.4842450596632</v>
+        <v>100.4842450596633</v>
       </c>
       <c r="L40" t="n">
         <v>128.585238161638</v>
       </c>
       <c r="M40" t="n">
-        <v>135.5751046607021</v>
+        <v>135.5751046607022</v>
       </c>
       <c r="N40" t="n">
         <v>132.3514316971293</v>
@@ -34076,16 +34076,16 @@
         <v>72.4225650426102</v>
       </c>
       <c r="R40" t="n">
-        <v>38.88850360446747</v>
+        <v>38.88850360446748</v>
       </c>
       <c r="S40" t="n">
-        <v>15.07263675894948</v>
+        <v>15.07263675894949</v>
       </c>
       <c r="T40" t="n">
-        <v>3.695429982632372</v>
+        <v>3.695429982632373</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04717570190594524</v>
+        <v>0.04717570190594525</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.928119139874475</v>
+        <v>1.928119139874476</v>
       </c>
       <c r="H41" t="n">
         <v>19.74635014123948</v>
       </c>
       <c r="I41" t="n">
-        <v>74.33381314001079</v>
+        <v>74.3338131400108</v>
       </c>
       <c r="J41" t="n">
         <v>163.6467018479214</v>
@@ -34137,13 +34137,13 @@
         <v>245.263985038808</v>
       </c>
       <c r="L41" t="n">
-        <v>304.2716611657415</v>
+        <v>304.2716611657416</v>
       </c>
       <c r="M41" t="n">
         <v>338.5608499194843</v>
       </c>
       <c r="N41" t="n">
-        <v>344.0391184256532</v>
+        <v>344.0391184256527</v>
       </c>
       <c r="O41" t="n">
         <v>324.8663837285258</v>
@@ -34158,10 +34158,10 @@
         <v>121.1172139201401</v>
       </c>
       <c r="S41" t="n">
-        <v>43.93701489988965</v>
+        <v>43.93701489988966</v>
       </c>
       <c r="T41" t="n">
-        <v>8.44034153480052</v>
+        <v>8.440341534800522</v>
       </c>
       <c r="U41" t="n">
         <v>0.154249531189958</v>
@@ -34204,22 +34204,22 @@
         <v>1.031634688848877</v>
       </c>
       <c r="H42" t="n">
-        <v>9.963419231777314</v>
+        <v>9.963419231777316</v>
       </c>
       <c r="I42" t="n">
-        <v>35.51900134852494</v>
+        <v>35.51900134852495</v>
       </c>
       <c r="J42" t="n">
-        <v>97.46685452848098</v>
+        <v>97.46685452848099</v>
       </c>
       <c r="K42" t="n">
-        <v>166.5863786813557</v>
+        <v>166.5863786813558</v>
       </c>
       <c r="L42" t="n">
-        <v>223.9959441730862</v>
+        <v>223.9959441730863</v>
       </c>
       <c r="M42" t="n">
-        <v>261.3927016438579</v>
+        <v>261.392701643858</v>
       </c>
       <c r="N42" t="n">
         <v>268.3109886581121</v>
@@ -34231,10 +34231,10 @@
         <v>196.9969784346597</v>
       </c>
       <c r="Q42" t="n">
-        <v>131.6872630888496</v>
+        <v>131.6872630888497</v>
       </c>
       <c r="R42" t="n">
-        <v>64.05184497958206</v>
+        <v>64.05184497958207</v>
       </c>
       <c r="S42" t="n">
         <v>19.16216187401312</v>
@@ -34243,7 +34243,7 @@
         <v>4.158211750228586</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06787070321374193</v>
+        <v>0.06787070321374195</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,25 +34280,25 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8648878682756618</v>
+        <v>0.8648878682756619</v>
       </c>
       <c r="H43" t="n">
-        <v>7.689639410669072</v>
+        <v>7.689639410669073</v>
       </c>
       <c r="I43" t="n">
         <v>26.00953698414446</v>
       </c>
       <c r="J43" t="n">
-        <v>61.14757228708929</v>
+        <v>61.1475722870893</v>
       </c>
       <c r="K43" t="n">
-        <v>100.4842450596632</v>
+        <v>100.4842450596633</v>
       </c>
       <c r="L43" t="n">
         <v>128.585238161638</v>
       </c>
       <c r="M43" t="n">
-        <v>135.5751046607021</v>
+        <v>135.5751046607022</v>
       </c>
       <c r="N43" t="n">
         <v>132.3514316971293</v>
@@ -34313,16 +34313,16 @@
         <v>72.4225650426102</v>
       </c>
       <c r="R43" t="n">
-        <v>38.88850360446747</v>
+        <v>38.88850360446748</v>
       </c>
       <c r="S43" t="n">
-        <v>15.07263675894948</v>
+        <v>15.07263675894949</v>
       </c>
       <c r="T43" t="n">
-        <v>3.695429982632372</v>
+        <v>3.695429982632373</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04717570190594524</v>
+        <v>0.04717570190594525</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34389,7 +34389,7 @@
         <v>277.2659424628746</v>
       </c>
       <c r="Q44" t="n">
-        <v>208.2151757661205</v>
+        <v>208.2151757661199</v>
       </c>
       <c r="R44" t="n">
         <v>121.1172139201401</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>45.96686390557534</v>
+        <v>45.96686390557531</v>
       </c>
       <c r="K11" t="n">
         <v>102.2055818595707</v>
       </c>
       <c r="L11" t="n">
-        <v>151.0234914352499</v>
+        <v>151.0234914352498</v>
       </c>
       <c r="M11" t="n">
         <v>188.835798321757</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>142.3151126376648</v>
+        <v>182.6890849463307</v>
       </c>
       <c r="K12" t="n">
-        <v>76.98944334802242</v>
+        <v>76.98944334802239</v>
       </c>
       <c r="L12" t="n">
         <v>133.935597316168</v>
       </c>
       <c r="M12" t="n">
-        <v>169.0055795945461</v>
+        <v>169.005579594546</v>
       </c>
       <c r="N12" t="n">
         <v>182.9388758039455</v>
@@ -35506,13 +35506,13 @@
         <v>152.7645769268349</v>
       </c>
       <c r="P12" t="n">
-        <v>109.9136136153451</v>
+        <v>109.913613615345</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.69910993293568</v>
+        <v>40.69910993293566</v>
       </c>
       <c r="R12" t="n">
-        <v>40.37397230866597</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>31.07308481493023</v>
+        <v>31.07308481493022</v>
       </c>
       <c r="K13" t="n">
-        <v>183.1459027464732</v>
+        <v>16.62562724881525</v>
       </c>
       <c r="L13" t="n">
-        <v>264.9098272115529</v>
+        <v>264.9098272115528</v>
       </c>
       <c r="M13" t="n">
-        <v>257.5649668935413</v>
+        <v>45.27334509475885</v>
       </c>
       <c r="N13" t="n">
-        <v>264.9098272115529</v>
+        <v>264.9098272115528</v>
       </c>
       <c r="O13" t="n">
-        <v>32.25121887857489</v>
+        <v>264.9098272115528</v>
       </c>
       <c r="P13" t="n">
-        <v>15.08105372750317</v>
+        <v>161.2343426909655</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>142.3151126376644</v>
+        <v>182.6890849463306</v>
       </c>
       <c r="K15" t="n">
         <v>76.98944334802242</v>
@@ -35749,7 +35749,7 @@
         <v>40.69910993293568</v>
       </c>
       <c r="R15" t="n">
-        <v>40.37397230866597</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>31.07308481493023</v>
       </c>
       <c r="K16" t="n">
-        <v>16.62562724881526</v>
+        <v>183.1459027464732</v>
       </c>
       <c r="L16" t="n">
-        <v>191.426634058221</v>
+        <v>40.9101985788331</v>
       </c>
       <c r="M16" t="n">
-        <v>264.9098272115527</v>
+        <v>45.27334509475888</v>
       </c>
       <c r="N16" t="n">
-        <v>264.9098272115527</v>
+        <v>264.9098272115528</v>
       </c>
       <c r="O16" t="n">
-        <v>264.9098272115527</v>
+        <v>264.9098272115528</v>
       </c>
       <c r="P16" t="n">
-        <v>15.08105372750317</v>
+        <v>218.7136958260272</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>45.96686390557537</v>
+        <v>45.96686390557531</v>
       </c>
       <c r="K17" t="n">
         <v>102.2055818595707</v>
       </c>
       <c r="L17" t="n">
-        <v>151.02349143525</v>
+        <v>151.0234914352498</v>
       </c>
       <c r="M17" t="n">
-        <v>188.8357983217571</v>
+        <v>188.835798321757</v>
       </c>
       <c r="N17" t="n">
         <v>194.9206270878686</v>
       </c>
       <c r="O17" t="n">
-        <v>175.3025463044295</v>
+        <v>175.3025463044294</v>
       </c>
       <c r="P17" t="n">
-        <v>126.9644952219495</v>
+        <v>126.9644952219494</v>
       </c>
       <c r="Q17" t="n">
-        <v>63.71647734772779</v>
+        <v>63.71647734772776</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>15.02239719514766</v>
+        <v>15.02239719514763</v>
       </c>
       <c r="K18" t="n">
-        <v>76.98944334802242</v>
+        <v>76.98944334802239</v>
       </c>
       <c r="L18" t="n">
-        <v>133.9355973161681</v>
+        <v>133.935597316168</v>
       </c>
       <c r="M18" t="n">
-        <v>169.0055795945461</v>
+        <v>169.005579594546</v>
       </c>
       <c r="N18" t="n">
         <v>182.9388758039455</v>
       </c>
       <c r="O18" t="n">
-        <v>152.764576926835</v>
+        <v>152.7645769268349</v>
       </c>
       <c r="P18" t="n">
-        <v>109.9136136153451</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="Q18" t="n">
-        <v>167.9918253754527</v>
+        <v>53.36958408791067</v>
       </c>
       <c r="R18" t="n">
-        <v>40.37397230866597</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>31.07308481493023</v>
+        <v>31.07308481493022</v>
       </c>
       <c r="K19" t="n">
-        <v>167.1420627282035</v>
+        <v>183.1459027464732</v>
       </c>
       <c r="L19" t="n">
-        <v>40.9101985788331</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="M19" t="n">
-        <v>264.9098272115529</v>
+        <v>45.27334509475885</v>
       </c>
       <c r="N19" t="n">
-        <v>264.9098272115529</v>
+        <v>49.35582779472776</v>
       </c>
       <c r="O19" t="n">
-        <v>264.9098272115529</v>
+        <v>173.6072722715155</v>
       </c>
       <c r="P19" t="n">
-        <v>15.08105372750319</v>
+        <v>225.6912924974073</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>75.87932905276269</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>45.96686390557537</v>
+        <v>45.96686390557534</v>
       </c>
       <c r="K20" t="n">
         <v>102.2055818595707</v>
       </c>
       <c r="L20" t="n">
-        <v>151.02349143525</v>
+        <v>151.0234914352499</v>
       </c>
       <c r="M20" t="n">
-        <v>188.8357983217571</v>
+        <v>188.835798321757</v>
       </c>
       <c r="N20" t="n">
         <v>194.9206270878686</v>
       </c>
       <c r="O20" t="n">
-        <v>175.3025463044295</v>
+        <v>175.3025463044294</v>
       </c>
       <c r="P20" t="n">
-        <v>126.9644952219495</v>
+        <v>126.9644952219494</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.71647734772779</v>
+        <v>63.71647734772776</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>15.02239719514766</v>
+        <v>182.6890849463304</v>
       </c>
       <c r="K21" t="n">
         <v>76.98944334802242</v>
       </c>
       <c r="L21" t="n">
-        <v>133.9355973161681</v>
+        <v>133.935597316168</v>
       </c>
       <c r="M21" t="n">
         <v>169.0055795945461</v>
@@ -36214,16 +36214,16 @@
         <v>182.9388758039455</v>
       </c>
       <c r="O21" t="n">
-        <v>152.764576926835</v>
+        <v>152.7645769268349</v>
       </c>
       <c r="P21" t="n">
         <v>109.9136136153451</v>
       </c>
       <c r="Q21" t="n">
-        <v>167.9918253754527</v>
+        <v>40.69910993293568</v>
       </c>
       <c r="R21" t="n">
-        <v>40.37397230866597</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>31.07308481493023</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>167.1420627282035</v>
+        <v>183.1459027464732</v>
       </c>
       <c r="L22" t="n">
         <v>40.9101985788331</v>
       </c>
       <c r="M22" t="n">
-        <v>264.9098272115529</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="N22" t="n">
-        <v>264.9098272115529</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="O22" t="n">
-        <v>264.9098272115529</v>
+        <v>69.36883323830887</v>
       </c>
       <c r="P22" t="n">
-        <v>15.08105372750319</v>
+        <v>225.6912924974073</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>142.315112637665</v>
+        <v>182.6890849463301</v>
       </c>
       <c r="K24" t="n">
         <v>76.98944334802242</v>
@@ -36460,7 +36460,7 @@
         <v>40.69910993293568</v>
       </c>
       <c r="R24" t="n">
-        <v>40.37397230866597</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,25 +36518,25 @@
         <v>31.07308481493023</v>
       </c>
       <c r="K25" t="n">
-        <v>183.1459027464732</v>
+        <v>16.62562724881526</v>
       </c>
       <c r="L25" t="n">
-        <v>264.9098272115529</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="M25" t="n">
-        <v>45.27334509475888</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="N25" t="n">
-        <v>49.35582779472776</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="O25" t="n">
-        <v>173.6072722715158</v>
+        <v>32.25121887857489</v>
       </c>
       <c r="P25" t="n">
-        <v>225.6912924974073</v>
+        <v>174.2564689071494</v>
       </c>
       <c r="Q25" t="n">
-        <v>75.87932905276269</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>45.96686390557534</v>
+        <v>45.96686390557531</v>
       </c>
       <c r="K26" t="n">
         <v>102.2055818595707</v>
       </c>
       <c r="L26" t="n">
-        <v>151.0234914352499</v>
+        <v>151.0234914352498</v>
       </c>
       <c r="M26" t="n">
         <v>188.835798321757</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>15.02239719514765</v>
+        <v>15.02239719514763</v>
       </c>
       <c r="K27" t="n">
-        <v>76.98944334802242</v>
+        <v>76.98944334802239</v>
       </c>
       <c r="L27" t="n">
         <v>133.935597316168</v>
       </c>
       <c r="M27" t="n">
-        <v>169.0055795945461</v>
+        <v>169.005579594546</v>
       </c>
       <c r="N27" t="n">
-        <v>182.9388758039455</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="O27" t="n">
-        <v>152.7645769268349</v>
+        <v>238.4603132704104</v>
       </c>
       <c r="P27" t="n">
-        <v>109.9136136153451</v>
+        <v>109.913613615345</v>
       </c>
       <c r="Q27" t="n">
-        <v>208.3657976841187</v>
+        <v>40.69910993293566</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>31.07308481493023</v>
+        <v>31.07308481493022</v>
       </c>
       <c r="K28" t="n">
         <v>183.1459027464732</v>
       </c>
       <c r="L28" t="n">
-        <v>264.9098272115529</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="M28" t="n">
-        <v>262.5087275404622</v>
+        <v>45.27334509475885</v>
       </c>
       <c r="N28" t="n">
         <v>49.35582779472776</v>
       </c>
       <c r="O28" t="n">
-        <v>32.25121887857489</v>
+        <v>173.6072722715155</v>
       </c>
       <c r="P28" t="n">
         <v>225.6912924974073</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>75.87932905276269</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>15.02239719514765</v>
+        <v>182.6890849463304</v>
       </c>
       <c r="K30" t="n">
-        <v>204.2821587905396</v>
+        <v>76.98944334802242</v>
       </c>
       <c r="L30" t="n">
         <v>133.935597316168</v>
@@ -36934,7 +36934,7 @@
         <v>40.69910993293568</v>
       </c>
       <c r="R30" t="n">
-        <v>40.37397230866597</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>31.07308481493023</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>113.3111032385145</v>
+        <v>16.62562724881526</v>
       </c>
       <c r="L31" t="n">
-        <v>40.9101985788331</v>
+        <v>222.4997188731512</v>
       </c>
       <c r="M31" t="n">
-        <v>264.9098272115529</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="N31" t="n">
-        <v>264.9098272115529</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="O31" t="n">
-        <v>32.25121887857489</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="P31" t="n">
-        <v>225.6912924974073</v>
+        <v>15.08105372750317</v>
       </c>
       <c r="Q31" t="n">
-        <v>75.87932905276269</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>15.02239719514765</v>
+        <v>142.3151126376648</v>
       </c>
       <c r="K36" t="n">
-        <v>204.2821587905396</v>
+        <v>76.98944334802242</v>
       </c>
       <c r="L36" t="n">
         <v>133.935597316168</v>
@@ -37469,19 +37469,19 @@
         <v>16.62562724881526</v>
       </c>
       <c r="L37" t="n">
-        <v>264.9098272115529</v>
+        <v>231.5259622200413</v>
       </c>
       <c r="M37" t="n">
-        <v>264.9098272115529</v>
+        <v>45.27334509475888</v>
       </c>
       <c r="N37" t="n">
         <v>264.9098272115529</v>
       </c>
       <c r="O37" t="n">
-        <v>222.4997188731515</v>
+        <v>264.9098272115529</v>
       </c>
       <c r="P37" t="n">
-        <v>15.08105372750317</v>
+        <v>225.6912924974073</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>45.96686390557531</v>
+        <v>45.96686390557534</v>
       </c>
       <c r="K38" t="n">
         <v>102.2055818595707</v>
       </c>
       <c r="L38" t="n">
-        <v>151.0234914352498</v>
+        <v>151.0234914352499</v>
       </c>
       <c r="M38" t="n">
         <v>188.835798321757</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>15.02239719514763</v>
+        <v>182.6890849463304</v>
       </c>
       <c r="K39" t="n">
-        <v>76.98944334802239</v>
+        <v>76.98944334802242</v>
       </c>
       <c r="L39" t="n">
         <v>133.935597316168</v>
       </c>
       <c r="M39" t="n">
-        <v>169.005579594546</v>
+        <v>169.0055795945461</v>
       </c>
       <c r="N39" t="n">
         <v>182.9388758039455</v>
@@ -37639,13 +37639,13 @@
         <v>152.7645769268349</v>
       </c>
       <c r="P39" t="n">
-        <v>109.913613615345</v>
+        <v>109.9136136153451</v>
       </c>
       <c r="Q39" t="n">
-        <v>167.9918253754529</v>
+        <v>40.69910993293568</v>
       </c>
       <c r="R39" t="n">
-        <v>40.37397230866596</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>31.07308481493022</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>16.62562724881525</v>
+        <v>16.62562724881526</v>
       </c>
       <c r="L40" t="n">
-        <v>191.4266340582213</v>
+        <v>222.4997188731512</v>
       </c>
       <c r="M40" t="n">
-        <v>264.9098272115529</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="N40" t="n">
-        <v>264.9098272115529</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="O40" t="n">
-        <v>264.9098272115529</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="P40" t="n">
-        <v>15.08105372750316</v>
+        <v>15.08105372750317</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>45.96686390557531</v>
+        <v>45.96686390557534</v>
       </c>
       <c r="K41" t="n">
         <v>102.2055818595707</v>
       </c>
       <c r="L41" t="n">
-        <v>151.0234914352498</v>
+        <v>151.0234914352499</v>
       </c>
       <c r="M41" t="n">
         <v>188.835798321757</v>
       </c>
       <c r="N41" t="n">
-        <v>194.9206270878691</v>
+        <v>194.9206270878686</v>
       </c>
       <c r="O41" t="n">
         <v>175.3025463044294</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>15.02239719514763</v>
+        <v>142.3151126376648</v>
       </c>
       <c r="K42" t="n">
-        <v>76.98944334802239</v>
+        <v>76.98944334802242</v>
       </c>
       <c r="L42" t="n">
         <v>133.935597316168</v>
       </c>
       <c r="M42" t="n">
-        <v>169.005579594546</v>
+        <v>169.0055795945461</v>
       </c>
       <c r="N42" t="n">
         <v>182.9388758039455</v>
@@ -37876,13 +37876,13 @@
         <v>152.7645769268349</v>
       </c>
       <c r="P42" t="n">
-        <v>237.2063290578623</v>
+        <v>109.9136136153451</v>
       </c>
       <c r="Q42" t="n">
-        <v>40.69910993293566</v>
+        <v>40.69910993293568</v>
       </c>
       <c r="R42" t="n">
-        <v>40.37397230866596</v>
+        <v>40.37397230866597</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,10 +37940,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>183.1459027464732</v>
+        <v>16.62562724881526</v>
       </c>
       <c r="L43" t="n">
-        <v>40.91019857883308</v>
+        <v>264.9098272115529</v>
       </c>
       <c r="M43" t="n">
         <v>264.9098272115529</v>
@@ -37952,10 +37952,10 @@
         <v>264.9098272115529</v>
       </c>
       <c r="O43" t="n">
-        <v>69.36883323830921</v>
+        <v>222.4997188731515</v>
       </c>
       <c r="P43" t="n">
-        <v>225.6912924974073</v>
+        <v>15.08105372750317</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>126.9644952219494</v>
       </c>
       <c r="Q44" t="n">
-        <v>63.71647734772833</v>
+        <v>63.71647734772776</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38107,19 +38107,19 @@
         <v>169.005579594546</v>
       </c>
       <c r="N45" t="n">
-        <v>198.0863409617449</v>
+        <v>182.9388758039455</v>
       </c>
       <c r="O45" t="n">
-        <v>264.9098272115529</v>
+        <v>152.7645769268349</v>
       </c>
       <c r="P45" t="n">
         <v>109.913613615345</v>
       </c>
       <c r="Q45" t="n">
-        <v>40.69910993293566</v>
+        <v>208.3657976841186</v>
       </c>
       <c r="R45" t="n">
-        <v>40.37397230866596</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,19 +38177,19 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>183.1459027464732</v>
+        <v>16.62562724881525</v>
       </c>
       <c r="L46" t="n">
-        <v>264.9098272115529</v>
+        <v>264.9098272115528</v>
       </c>
       <c r="M46" t="n">
-        <v>264.9098272115529</v>
+        <v>264.9098272115528</v>
       </c>
       <c r="N46" t="n">
-        <v>264.9098272115529</v>
+        <v>264.9098272115528</v>
       </c>
       <c r="O46" t="n">
-        <v>55.97944337549355</v>
+        <v>222.4997188731514</v>
       </c>
       <c r="P46" t="n">
         <v>15.08105372750316</v>
